--- a/Evaluation/Ergebnisse.xlsx
+++ b/Evaluation/Ergebnisse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morge\UniProgrammieren\Bachelorarbeit\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E28948-F412-48CD-8C3A-93A4555533D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8435A4FB-A016-409A-BC8D-D987771C287E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{52387500-C1F9-47D4-8B59-BEB6484736D5}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="158">
   <si>
     <t>Llama-3.1-8b-instruct</t>
   </si>
@@ -218,21 +219,6 @@
     <t>R,V, aber Fuse genannt und  nur eine Cam</t>
   </si>
   <si>
-    <t>Summary, implizit, no coordinates</t>
-  </si>
-  <si>
-    <t>R, V, sagt all lamps</t>
-  </si>
-  <si>
-    <t>Summary, implizit, with coordintes</t>
-  </si>
-  <si>
-    <t>Summary, explizit, no coordinates</t>
-  </si>
-  <si>
-    <t>Summary, explizit, with coordinates</t>
-  </si>
-  <si>
     <t>Drilling Machine</t>
   </si>
   <si>
@@ -380,6 +366,9 @@
     <t>Nur den Top Button genannt</t>
   </si>
   <si>
+    <t>R, unvollständig</t>
+  </si>
+  <si>
     <t>Falsche Antwort, Koordinaten falsch gedeutet</t>
   </si>
   <si>
@@ -405,6 +394,123 @@
   </si>
   <si>
     <t>Falsche Antwort, versteht mehrere Cams nicht</t>
+  </si>
+  <si>
+    <t>Frage falsch vertanden</t>
+  </si>
+  <si>
+    <t>R,V, explizit perfekt verstanden</t>
+  </si>
+  <si>
+    <t>Falsche Antwort, explizit und cams nicht verstanden</t>
+  </si>
+  <si>
+    <t>Falsch, zählt nur tripel auf</t>
+  </si>
+  <si>
+    <t>R, gute Begründung aber falscher Anfang</t>
+  </si>
+  <si>
+    <t>R,V, aber versteht multicam nicht</t>
+  </si>
+  <si>
+    <t>R, V</t>
+  </si>
+  <si>
+    <t>R,V, alle genannt aber eig gut</t>
+  </si>
+  <si>
+    <t>R,V, perfekt</t>
+  </si>
+  <si>
+    <t>Frage nicht verstanden</t>
+  </si>
+  <si>
+    <t>R,V, gut erklärt</t>
+  </si>
+  <si>
+    <t>Summary, implizit</t>
+  </si>
+  <si>
+    <t>Summary, explizit</t>
+  </si>
+  <si>
+    <t>Falsche Antwort (nur Name genannt)</t>
+  </si>
+  <si>
+    <t>R, Grinding wheel 2 vergessen</t>
+  </si>
+  <si>
+    <t>R, unvollstädnig</t>
+  </si>
+  <si>
+    <t>R,V (gibt halt alles aus, weil alles above ist)</t>
+  </si>
+  <si>
+    <t>R, Cover fehlt</t>
+  </si>
+  <si>
+    <t>R, aber Grund fehlt</t>
+  </si>
+  <si>
+    <t>Flasche Antwort</t>
+  </si>
+  <si>
+    <t>R,V, aber sehr viel sinnlose Wörter</t>
+  </si>
+  <si>
+    <t>R, aber sehr allgemein</t>
+  </si>
+  <si>
+    <t>R, aber sinnlose Begründung</t>
+  </si>
+  <si>
+    <t>Falsche Antwort, mit .owl richtig</t>
+  </si>
+  <si>
+    <t>DeepSeek-V3-0312</t>
+  </si>
+  <si>
+    <t>R,V, geht auf Coordinaten ein</t>
+  </si>
+  <si>
+    <t>R,V, vergisst ursprungsbefehle</t>
+  </si>
+  <si>
+    <t>R, Lampe mit Begründung nicht genannt</t>
+  </si>
+  <si>
+    <t>R,V, sogar Electrical Wiring genannt</t>
+  </si>
+  <si>
+    <t>R,V, enthält potentielle Probleme und Fehler</t>
+  </si>
+  <si>
+    <t>R,V, sogar Electrical Wiring genannt, Steps für Worker</t>
+  </si>
+  <si>
+    <t>R,V, sogar maintenance actions genannt</t>
+  </si>
+  <si>
+    <t>R,V, aber es gab sich ausschließende Properties</t>
+  </si>
+  <si>
+    <t>R,V, sogar maintenance checklist genannt</t>
+  </si>
+  <si>
+    <t>R,V, gibt sogar Schätzung für Sinn der Hebel</t>
+  </si>
+  <si>
+    <t>R,V, im Gegensatz zu implizit alle obrigen genannt</t>
+  </si>
+  <si>
+    <t>R,V, diesmal andere Antwort (aber beide richtig)</t>
+  </si>
+  <si>
+    <t>R,V, sogar Maintenance Priorities</t>
+  </si>
+  <si>
+    <t>R,V, alle genannt und sogar erwähnt, dass welches direkt</t>
   </si>
 </sst>
 </file>
@@ -803,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEE0BEF-A19C-46D9-8325-50102B7F2BC2}">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,23 +920,25 @@
     <col min="1" max="1" width="18.88671875" customWidth="1"/>
     <col min="2" max="2" width="32.21875" customWidth="1"/>
     <col min="3" max="3" width="49.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="39.33203125" customWidth="1"/>
-    <col min="6" max="6" width="48" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" customWidth="1"/>
-    <col min="8" max="8" width="34.109375" customWidth="1"/>
-    <col min="9" max="9" width="48.77734375" customWidth="1"/>
-    <col min="10" max="10" width="44.5546875" customWidth="1"/>
-    <col min="11" max="11" width="60.109375" customWidth="1"/>
-    <col min="12" max="12" width="51.21875" customWidth="1"/>
-    <col min="14" max="14" width="31.88671875" customWidth="1"/>
-    <col min="15" max="15" width="54.33203125" customWidth="1"/>
-    <col min="16" max="16" width="31.44140625" customWidth="1"/>
-    <col min="17" max="17" width="40.6640625" customWidth="1"/>
-    <col min="18" max="18" width="56" customWidth="1"/>
+    <col min="4" max="4" width="47.109375" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" customWidth="1"/>
+    <col min="7" max="7" width="48" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" customWidth="1"/>
+    <col min="9" max="9" width="34.109375" customWidth="1"/>
+    <col min="10" max="10" width="50.88671875" customWidth="1"/>
+    <col min="11" max="11" width="44.5546875" customWidth="1"/>
+    <col min="12" max="12" width="48.77734375" customWidth="1"/>
+    <col min="13" max="13" width="60.109375" customWidth="1"/>
+    <col min="14" max="14" width="51.21875" customWidth="1"/>
+    <col min="16" max="16" width="31.88671875" customWidth="1"/>
+    <col min="17" max="17" width="54.33203125" customWidth="1"/>
+    <col min="18" max="19" width="31.44140625" customWidth="1"/>
+    <col min="20" max="20" width="45.21875" customWidth="1"/>
+    <col min="21" max="21" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -841,64 +949,75 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <f>A1</f>
         <v>Machine</v>
       </c>
-      <c r="H1" t="str">
-        <f t="shared" ref="H1:L1" si="0">B1</f>
+      <c r="I1" t="str">
+        <f>B1</f>
         <v>KG-Architektur</v>
       </c>
-      <c r="I1" t="str">
-        <f t="shared" si="0"/>
+      <c r="J1" t="str">
+        <f>C1</f>
         <v>Question</v>
       </c>
-      <c r="J1" t="str">
-        <f t="shared" si="0"/>
+      <c r="K1" t="str">
+        <f>D1</f>
         <v>DeepSeek-R1</v>
       </c>
-      <c r="K1" t="str">
-        <f t="shared" si="0"/>
+      <c r="L1" t="str">
+        <f>E1</f>
+        <v>DeepSeek-V3-0312</v>
+      </c>
+      <c r="M1" t="str">
+        <f t="shared" ref="M1:N1" si="0">F1</f>
         <v>Llama-3.1-8b-instruct</v>
       </c>
-      <c r="L1" t="str">
+      <c r="N1" t="str">
         <f t="shared" si="0"/>
         <v>Qwen-2.5-3B</v>
       </c>
-      <c r="M1" t="str">
+      <c r="O1" t="str">
         <f>A1</f>
         <v>Machine</v>
       </c>
-      <c r="N1" t="str">
-        <f t="shared" ref="N1:S1" si="1">B1</f>
+      <c r="P1" t="str">
+        <f>B1</f>
         <v>KG-Architektur</v>
       </c>
-      <c r="O1" t="str">
-        <f t="shared" si="1"/>
+      <c r="Q1" t="str">
+        <f>C1</f>
         <v>Question</v>
       </c>
-      <c r="P1" t="str">
-        <f t="shared" si="1"/>
+      <c r="R1" t="str">
+        <f>D1</f>
         <v>DeepSeek-R1</v>
       </c>
-      <c r="Q1" t="str">
-        <f t="shared" si="1"/>
+      <c r="S1" t="str">
+        <f>E1</f>
+        <v>DeepSeek-V3-0312</v>
+      </c>
+      <c r="T1" t="str">
+        <f t="shared" ref="T1:U1" si="1">F1</f>
         <v>Llama-3.1-8b-instruct</v>
       </c>
-      <c r="R1" t="str">
+      <c r="U1" t="str">
         <f t="shared" si="1"/>
         <v>Qwen-2.5-3B</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -915,48 +1034,54 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" t="str">
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="str">
         <f>B2</f>
         <v>Single, implizit, no coordinates</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
+      <c r="J2" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N2" t="str">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" t="str">
         <f>B2</f>
         <v>Single, implizit, no coordinates</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="P2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>19</v>
+      <c r="Q2" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="R2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -973,48 +1098,54 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H49" si="2">B3</f>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I41" si="2">B3</f>
         <v>Single, implizit, no coordinates</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" t="s">
-        <v>75</v>
+      <c r="J3" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>100</v>
-      </c>
-      <c r="N3" t="str">
-        <f t="shared" ref="N3:N49" si="3">B3</f>
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P41" si="3">B3</f>
         <v>Single, implizit, no coordinates</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>12</v>
+      <c r="Q3" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="T3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1028,51 +1159,57 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" t="str">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" t="str">
         <f t="shared" si="2"/>
         <v>Single, implizit, no coordinates</v>
       </c>
-      <c r="I4" t="s">
-        <v>67</v>
-      </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="3"/>
+        <v>Single, implizit, no coordinates</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" t="s">
         <v>100</v>
       </c>
-      <c r="N4" t="str">
-        <f t="shared" si="3"/>
-        <v>Single, implizit, no coordinates</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1086,51 +1223,57 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v>Single, implizit, no coordinates</v>
+      </c>
+      <c r="J5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M5" t="s">
         <v>65</v>
       </c>
-      <c r="H5" t="str">
-        <f t="shared" si="2"/>
+      <c r="N5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="3"/>
         <v>Single, implizit, no coordinates</v>
       </c>
-      <c r="I5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" t="s">
-        <v>100</v>
-      </c>
-      <c r="N5" t="str">
-        <f t="shared" si="3"/>
-        <v>Single, implizit, no coordinates</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P5" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>108</v>
+      <c r="Q5" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="R5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="T5" t="s">
+        <v>103</v>
+      </c>
+      <c r="U5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1144,51 +1287,57 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" t="str">
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" t="str">
         <f t="shared" si="2"/>
         <v>Single, implizit, with coordinates</v>
       </c>
-      <c r="I6" t="s">
-        <v>66</v>
-      </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="M6" t="s">
-        <v>100</v>
-      </c>
-      <c r="N6" t="str">
+        <v>67</v>
+      </c>
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" t="s">
+        <v>95</v>
+      </c>
+      <c r="P6" t="str">
         <f t="shared" si="3"/>
         <v>Single, implizit, with coordinates</v>
       </c>
-      <c r="O6" t="s">
-        <v>102</v>
-      </c>
-      <c r="P6" t="s">
-        <v>12</v>
-      </c>
       <c r="Q6" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="R6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="T6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1205,48 +1354,54 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" t="str">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" t="str">
         <f t="shared" si="2"/>
         <v>Single, implizit, with coordinates</v>
       </c>
-      <c r="I7" t="s">
-        <v>73</v>
-      </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="M7" t="s">
-        <v>100</v>
-      </c>
-      <c r="N7" t="str">
+        <v>69</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" t="str">
         <f t="shared" si="3"/>
         <v>Single, implizit, with coordinates</v>
       </c>
-      <c r="O7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q7" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="R7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="T7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1260,51 +1415,57 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" t="str">
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" t="str">
         <f t="shared" si="2"/>
         <v>Single, implizit, with coordinates</v>
       </c>
-      <c r="I8" t="s">
-        <v>67</v>
-      </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>100</v>
-      </c>
-      <c r="N8" t="str">
+        <v>12</v>
+      </c>
+      <c r="N8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P8" t="str">
         <f t="shared" si="3"/>
         <v>Single, implizit, with coordinates</v>
       </c>
-      <c r="O8" t="s">
-        <v>104</v>
-      </c>
-      <c r="P8" t="s">
-        <v>12</v>
-      </c>
       <c r="Q8" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="R8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="T8" t="s">
+        <v>12</v>
+      </c>
+      <c r="U8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1318,51 +1479,57 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
         <v>21</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>22</v>
       </c>
-      <c r="G9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" t="str">
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" t="str">
         <f t="shared" si="2"/>
         <v>Single, implizit, with coordinates</v>
       </c>
-      <c r="I9" t="s">
-        <v>68</v>
-      </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>100</v>
-      </c>
-      <c r="N9" t="str">
+        <v>12</v>
+      </c>
+      <c r="N9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" t="s">
+        <v>95</v>
+      </c>
+      <c r="P9" t="str">
         <f t="shared" si="3"/>
         <v>Single, implizit, with coordinates</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
+        <v>101</v>
+      </c>
+      <c r="R9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" t="s">
         <v>106</v>
       </c>
-      <c r="P9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>111</v>
-      </c>
-      <c r="R9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1379,48 +1546,54 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>24</v>
       </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" t="str">
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" t="str">
         <f t="shared" si="2"/>
         <v>Single, explizit, no coordinates</v>
       </c>
-      <c r="I10" t="s">
-        <v>66</v>
-      </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="L10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" t="s">
         <v>14</v>
       </c>
-      <c r="M10" t="s">
-        <v>100</v>
-      </c>
-      <c r="N10" t="str">
+      <c r="O10" t="s">
+        <v>95</v>
+      </c>
+      <c r="P10" t="str">
         <f t="shared" si="3"/>
         <v>Single, explizit, no coordinates</v>
       </c>
-      <c r="O10" t="s">
-        <v>102</v>
-      </c>
-      <c r="P10" t="s">
-        <v>12</v>
-      </c>
       <c r="Q10" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="R10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T10" t="s">
+        <v>107</v>
+      </c>
+      <c r="U10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1434,51 +1607,57 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>25</v>
       </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
       <c r="G11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" t="str">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" t="str">
         <f t="shared" si="2"/>
         <v>Single, explizit, no coordinates</v>
       </c>
-      <c r="I11" t="s">
-        <v>73</v>
-      </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M11" t="s">
-        <v>100</v>
-      </c>
-      <c r="N11" t="str">
+        <v>80</v>
+      </c>
+      <c r="N11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" t="str">
         <f t="shared" si="3"/>
         <v>Single, explizit, no coordinates</v>
       </c>
-      <c r="O11" t="s">
-        <v>103</v>
-      </c>
-      <c r="P11" t="s">
-        <v>12</v>
-      </c>
       <c r="Q11" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="R11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="T11" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1492,51 +1671,57 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" t="str">
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" t="str">
         <f t="shared" si="2"/>
         <v>Single, explizit, no coordinates</v>
       </c>
-      <c r="I12" t="s">
-        <v>67</v>
-      </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="L12" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M12" t="s">
-        <v>100</v>
-      </c>
-      <c r="N12" t="str">
+        <v>75</v>
+      </c>
+      <c r="N12" t="s">
+        <v>76</v>
+      </c>
+      <c r="O12" t="s">
+        <v>95</v>
+      </c>
+      <c r="P12" t="str">
         <f t="shared" si="3"/>
         <v>Single, explizit, no coordinates</v>
       </c>
-      <c r="O12" t="s">
-        <v>104</v>
-      </c>
-      <c r="P12" t="s">
-        <v>12</v>
-      </c>
       <c r="Q12" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="R12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="T12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1550,51 +1735,57 @@
         <v>27</v>
       </c>
       <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>26</v>
       </c>
-      <c r="G13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" t="str">
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" t="str">
         <f t="shared" si="2"/>
         <v>Single, explizit, no coordinates</v>
       </c>
-      <c r="I13" t="s">
-        <v>68</v>
-      </c>
       <c r="J13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" t="s">
+        <v>156</v>
+      </c>
+      <c r="M13" t="s">
         <v>82</v>
       </c>
-      <c r="K13" t="s">
-        <v>87</v>
-      </c>
-      <c r="L13" t="s">
-        <v>86</v>
-      </c>
-      <c r="M13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N13" t="str">
+      <c r="N13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" t="str">
         <f t="shared" si="3"/>
         <v>Single, explizit, no coordinates</v>
       </c>
-      <c r="O13" t="s">
-        <v>106</v>
-      </c>
-      <c r="P13" t="s">
-        <v>12</v>
-      </c>
       <c r="Q13" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="R13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="T13" t="s">
+        <v>12</v>
+      </c>
+      <c r="U13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1611,48 +1802,54 @@
         <v>12</v>
       </c>
       <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="G14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" t="str">
+      <c r="H14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" t="str">
         <f t="shared" si="2"/>
         <v>Single, explizit, with coordinates</v>
       </c>
-      <c r="I14" t="s">
-        <v>66</v>
-      </c>
       <c r="J14" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="L14" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="M14" t="s">
-        <v>100</v>
-      </c>
-      <c r="N14" t="str">
+        <v>78</v>
+      </c>
+      <c r="N14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" t="str">
         <f t="shared" si="3"/>
         <v>Single, explizit, with coordinates</v>
       </c>
-      <c r="O14" t="s">
-        <v>102</v>
-      </c>
-      <c r="P14" t="s">
-        <v>12</v>
-      </c>
       <c r="Q14" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="R14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="T14" t="s">
+        <v>108</v>
+      </c>
+      <c r="U14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1669,48 +1866,54 @@
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" t="str">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" t="str">
         <f t="shared" si="2"/>
         <v>Single, explizit, with coordinates</v>
       </c>
-      <c r="I15" t="s">
-        <v>73</v>
-      </c>
       <c r="J15" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="K15" t="s">
         <v>79</v>
       </c>
       <c r="L15" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M15" t="s">
-        <v>100</v>
-      </c>
-      <c r="N15" t="str">
+        <v>74</v>
+      </c>
+      <c r="N15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" t="str">
         <f t="shared" si="3"/>
         <v>Single, explizit, with coordinates</v>
       </c>
-      <c r="O15" t="s">
-        <v>103</v>
-      </c>
-      <c r="P15" t="s">
-        <v>12</v>
-      </c>
       <c r="Q15" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="R15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="T15" t="s">
+        <v>110</v>
+      </c>
+      <c r="U15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1724,51 +1927,57 @@
         <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" t="str">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" t="str">
         <f t="shared" si="2"/>
         <v>Single, explizit, with coordinates</v>
       </c>
-      <c r="I16" t="s">
-        <v>67</v>
-      </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="K16" t="s">
         <v>12</v>
       </c>
       <c r="L16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M16" t="s">
-        <v>100</v>
-      </c>
-      <c r="N16" t="str">
+        <v>12</v>
+      </c>
+      <c r="N16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" t="str">
         <f t="shared" si="3"/>
         <v>Single, explizit, with coordinates</v>
       </c>
-      <c r="O16" t="s">
-        <v>104</v>
-      </c>
-      <c r="P16" t="s">
-        <v>12</v>
-      </c>
       <c r="Q16" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="R16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T16" t="s">
+        <v>12</v>
+      </c>
+      <c r="U16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1782,51 +1991,57 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" t="s">
         <v>31</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>32</v>
       </c>
-      <c r="G17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" t="str">
+      <c r="H17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" t="str">
         <f t="shared" si="2"/>
         <v>Single, explizit, with coordinates</v>
       </c>
-      <c r="I17" t="s">
-        <v>68</v>
-      </c>
       <c r="J17" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="K17" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="L17" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M17" t="s">
-        <v>100</v>
-      </c>
-      <c r="N17" t="str">
+        <v>12</v>
+      </c>
+      <c r="N17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" t="str">
         <f t="shared" si="3"/>
         <v>Single, explizit, with coordinates</v>
       </c>
-      <c r="O17" t="s">
-        <v>106</v>
-      </c>
-      <c r="P17" t="s">
-        <v>12</v>
-      </c>
       <c r="Q17" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="R17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="T17" t="s">
+        <v>111</v>
+      </c>
+      <c r="U17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1840,51 +2055,57 @@
         <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" t="str">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" t="str">
         <f t="shared" si="2"/>
         <v>Multi, implizit, no coordinates</v>
       </c>
-      <c r="I18" t="s">
-        <v>66</v>
-      </c>
       <c r="J18" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="L18" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="M18" t="s">
-        <v>100</v>
-      </c>
-      <c r="N18" t="str">
+        <v>84</v>
+      </c>
+      <c r="N18" t="s">
+        <v>83</v>
+      </c>
+      <c r="O18" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" t="str">
         <f t="shared" si="3"/>
         <v>Multi, implizit, no coordinates</v>
       </c>
-      <c r="O18" t="s">
-        <v>102</v>
-      </c>
-      <c r="P18" t="s">
-        <v>12</v>
-      </c>
       <c r="Q18" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="R18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="T18" t="s">
+        <v>112</v>
+      </c>
+      <c r="U18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1898,51 +2119,57 @@
         <v>35</v>
       </c>
       <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
         <v>36</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>37</v>
       </c>
-      <c r="G19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" t="str">
+      <c r="H19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" t="str">
         <f t="shared" si="2"/>
         <v>Multi, implizit, no coordinates</v>
       </c>
-      <c r="I19" t="s">
-        <v>73</v>
-      </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="K19" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="L19" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M19" t="s">
-        <v>100</v>
-      </c>
-      <c r="N19" t="str">
+        <v>19</v>
+      </c>
+      <c r="N19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" t="str">
         <f t="shared" si="3"/>
         <v>Multi, implizit, no coordinates</v>
       </c>
-      <c r="O19" t="s">
-        <v>103</v>
-      </c>
-      <c r="P19" t="s">
-        <v>12</v>
-      </c>
       <c r="Q19" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="R19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="T19" t="s">
+        <v>112</v>
+      </c>
+      <c r="U19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1956,51 +2183,57 @@
         <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
         <v>37</v>
       </c>
-      <c r="G20" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" t="str">
+      <c r="H20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" t="str">
         <f t="shared" si="2"/>
         <v>Multi, implizit, no coordinates</v>
       </c>
-      <c r="I20" t="s">
-        <v>67</v>
-      </c>
       <c r="J20" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="K20" t="s">
         <v>12</v>
       </c>
       <c r="L20" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="M20" t="s">
-        <v>100</v>
-      </c>
-      <c r="N20" t="str">
+        <v>12</v>
+      </c>
+      <c r="N20" t="s">
+        <v>86</v>
+      </c>
+      <c r="O20" t="s">
+        <v>95</v>
+      </c>
+      <c r="P20" t="str">
         <f t="shared" si="3"/>
         <v>Multi, implizit, no coordinates</v>
       </c>
-      <c r="O20" t="s">
-        <v>104</v>
-      </c>
-      <c r="P20" t="s">
-        <v>12</v>
-      </c>
       <c r="Q20" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="R20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="T20" t="s">
+        <v>112</v>
+      </c>
+      <c r="U20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -2014,51 +2247,57 @@
         <v>38</v>
       </c>
       <c r="E21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
       </c>
-      <c r="F21" t="s">
-        <v>19</v>
-      </c>
       <c r="G21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" t="str">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" t="str">
         <f t="shared" si="2"/>
         <v>Multi, implizit, no coordinates</v>
       </c>
-      <c r="I21" t="s">
-        <v>68</v>
-      </c>
       <c r="J21" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="K21" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="L21" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="M21" t="s">
-        <v>100</v>
-      </c>
-      <c r="N21" t="str">
+        <v>88</v>
+      </c>
+      <c r="N21" t="s">
+        <v>87</v>
+      </c>
+      <c r="O21" t="s">
+        <v>95</v>
+      </c>
+      <c r="P21" t="str">
         <f t="shared" si="3"/>
         <v>Multi, implizit, no coordinates</v>
       </c>
-      <c r="O21" t="s">
-        <v>106</v>
-      </c>
-      <c r="P21" t="s">
-        <v>12</v>
-      </c>
       <c r="Q21" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="R21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="T21" t="s">
+        <v>114</v>
+      </c>
+      <c r="U21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2072,51 +2311,57 @@
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
         <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" t="str">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" t="str">
         <f t="shared" si="2"/>
         <v>Multi, implizit, with coordinates</v>
       </c>
-      <c r="I22" t="s">
-        <v>66</v>
-      </c>
       <c r="J22" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="K22" t="s">
         <v>12</v>
       </c>
       <c r="L22" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M22" t="s">
-        <v>100</v>
-      </c>
-      <c r="N22" t="str">
+        <v>12</v>
+      </c>
+      <c r="N22" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" t="s">
+        <v>95</v>
+      </c>
+      <c r="P22" t="str">
         <f t="shared" si="3"/>
         <v>Multi, implizit, with coordinates</v>
       </c>
-      <c r="O22" t="s">
-        <v>102</v>
-      </c>
-      <c r="P22" t="s">
-        <v>12</v>
-      </c>
       <c r="Q22" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="R22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="T22" t="s">
+        <v>112</v>
+      </c>
+      <c r="U22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -2130,51 +2375,57 @@
         <v>38</v>
       </c>
       <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
         <v>37</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>42</v>
       </c>
-      <c r="G23" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" t="str">
+      <c r="H23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" t="str">
         <f t="shared" si="2"/>
         <v>Multi, implizit, with coordinates</v>
       </c>
-      <c r="I23" t="s">
-        <v>73</v>
-      </c>
       <c r="J23" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="K23" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L23" t="s">
         <v>12</v>
       </c>
       <c r="M23" t="s">
-        <v>100</v>
-      </c>
-      <c r="N23" t="str">
+        <v>19</v>
+      </c>
+      <c r="N23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" t="s">
+        <v>95</v>
+      </c>
+      <c r="P23" t="str">
         <f t="shared" si="3"/>
         <v>Multi, implizit, with coordinates</v>
       </c>
-      <c r="O23" t="s">
-        <v>103</v>
-      </c>
-      <c r="P23" t="s">
-        <v>12</v>
-      </c>
       <c r="Q23" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="R23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="T23" t="s">
+        <v>116</v>
+      </c>
+      <c r="U23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -2188,51 +2439,57 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
         <v>43</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>37</v>
       </c>
-      <c r="G24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" t="str">
+      <c r="H24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" t="str">
         <f t="shared" si="2"/>
         <v>Multi, implizit, with coordinates</v>
       </c>
-      <c r="I24" t="s">
-        <v>67</v>
-      </c>
       <c r="J24" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="K24" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="L24" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M24" t="s">
-        <v>100</v>
-      </c>
-      <c r="N24" t="str">
+        <v>89</v>
+      </c>
+      <c r="N24" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" t="s">
+        <v>95</v>
+      </c>
+      <c r="P24" t="str">
         <f t="shared" si="3"/>
         <v>Multi, implizit, with coordinates</v>
       </c>
-      <c r="O24" t="s">
-        <v>104</v>
-      </c>
-      <c r="P24" t="s">
-        <v>12</v>
-      </c>
       <c r="Q24" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="R24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="T24" t="s">
+        <v>117</v>
+      </c>
+      <c r="U24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2246,51 +2503,57 @@
         <v>38</v>
       </c>
       <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
         <v>44</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>45</v>
       </c>
-      <c r="G25" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" t="str">
+      <c r="H25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" t="str">
         <f t="shared" si="2"/>
         <v>Multi, implizit, with coordinates</v>
       </c>
-      <c r="I25" t="s">
-        <v>68</v>
-      </c>
       <c r="J25" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="K25" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="L25" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="M25" t="s">
-        <v>100</v>
-      </c>
-      <c r="N25" t="str">
+        <v>91</v>
+      </c>
+      <c r="N25" t="s">
+        <v>92</v>
+      </c>
+      <c r="O25" t="s">
+        <v>95</v>
+      </c>
+      <c r="P25" t="str">
         <f t="shared" si="3"/>
         <v>Multi, implizit, with coordinates</v>
       </c>
-      <c r="O25" t="s">
-        <v>106</v>
-      </c>
-      <c r="P25" t="s">
-        <v>12</v>
-      </c>
       <c r="Q25" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="R25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="T25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -2307,48 +2570,54 @@
         <v>12</v>
       </c>
       <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
         <v>37</v>
       </c>
-      <c r="G26" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" t="str">
+      <c r="H26" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" t="str">
         <f t="shared" si="2"/>
         <v>Multi, explizit, no coordinates</v>
       </c>
-      <c r="I26" t="s">
-        <v>66</v>
-      </c>
       <c r="J26" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="K26" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L26" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M26" t="s">
-        <v>100</v>
-      </c>
-      <c r="N26" t="str">
+        <v>19</v>
+      </c>
+      <c r="N26" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" t="s">
+        <v>95</v>
+      </c>
+      <c r="P26" t="str">
         <f t="shared" si="3"/>
         <v>Multi, explizit, no coordinates</v>
       </c>
-      <c r="O26" t="s">
-        <v>102</v>
-      </c>
-      <c r="P26" t="s">
-        <v>12</v>
-      </c>
       <c r="Q26" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="R26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="T26" t="s">
+        <v>118</v>
+      </c>
+      <c r="U26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2362,51 +2631,57 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
         <v>47</v>
       </c>
-      <c r="F27" t="s">
-        <v>19</v>
-      </c>
       <c r="G27" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" t="str">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" t="str">
         <f t="shared" si="2"/>
         <v>Multi, explizit, no coordinates</v>
       </c>
-      <c r="I27" t="s">
-        <v>73</v>
-      </c>
       <c r="J27" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="K27" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L27" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M27" t="s">
-        <v>100</v>
-      </c>
-      <c r="N27" t="str">
+        <v>19</v>
+      </c>
+      <c r="N27" t="s">
+        <v>19</v>
+      </c>
+      <c r="O27" t="s">
+        <v>95</v>
+      </c>
+      <c r="P27" t="str">
         <f t="shared" si="3"/>
         <v>Multi, explizit, no coordinates</v>
       </c>
-      <c r="O27" t="s">
-        <v>103</v>
-      </c>
-      <c r="P27" t="s">
-        <v>12</v>
-      </c>
       <c r="Q27" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="R27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="T27" t="s">
+        <v>19</v>
+      </c>
+      <c r="U27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -2420,51 +2695,57 @@
         <v>38</v>
       </c>
       <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
         <v>48</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>49</v>
       </c>
-      <c r="G28" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" t="str">
+      <c r="H28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" t="str">
         <f t="shared" si="2"/>
         <v>Multi, explizit, no coordinates</v>
       </c>
-      <c r="I28" t="s">
-        <v>67</v>
-      </c>
       <c r="J28" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="K28" t="s">
         <v>12</v>
       </c>
       <c r="L28" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M28" t="s">
-        <v>100</v>
-      </c>
-      <c r="N28" t="str">
+        <v>12</v>
+      </c>
+      <c r="N28" t="s">
+        <v>19</v>
+      </c>
+      <c r="O28" t="s">
+        <v>95</v>
+      </c>
+      <c r="P28" t="str">
         <f t="shared" si="3"/>
         <v>Multi, explizit, no coordinates</v>
       </c>
-      <c r="O28" t="s">
-        <v>104</v>
-      </c>
-      <c r="P28" t="s">
-        <v>12</v>
-      </c>
       <c r="Q28" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="R28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="T28" t="s">
+        <v>113</v>
+      </c>
+      <c r="U28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2478,51 +2759,57 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" t="s">
         <v>50</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>51</v>
       </c>
-      <c r="G29" t="s">
-        <v>65</v>
-      </c>
-      <c r="H29" t="str">
+      <c r="H29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" t="str">
         <f t="shared" si="2"/>
         <v>Multi, explizit, no coordinates</v>
       </c>
-      <c r="I29" t="s">
-        <v>68</v>
-      </c>
       <c r="J29" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="K29" t="s">
         <v>12</v>
       </c>
       <c r="L29" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M29" t="s">
-        <v>100</v>
-      </c>
-      <c r="N29" t="str">
+        <v>12</v>
+      </c>
+      <c r="N29" t="s">
+        <v>19</v>
+      </c>
+      <c r="O29" t="s">
+        <v>95</v>
+      </c>
+      <c r="P29" t="str">
         <f t="shared" si="3"/>
         <v>Multi, explizit, no coordinates</v>
       </c>
-      <c r="O29" t="s">
-        <v>106</v>
-      </c>
-      <c r="P29" t="s">
-        <v>12</v>
-      </c>
       <c r="Q29" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="R29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="T29" t="s">
+        <v>19</v>
+      </c>
+      <c r="U29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -2536,39 +2823,57 @@
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
         <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" t="str">
+        <v>37</v>
+      </c>
+      <c r="H30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" t="str">
         <f t="shared" si="2"/>
         <v>Multi, explizit, with coordinates</v>
       </c>
-      <c r="I30" t="s">
-        <v>66</v>
-      </c>
       <c r="J30" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="K30" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L30" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="M30" t="s">
-        <v>100</v>
-      </c>
-      <c r="N30" t="str">
+        <v>19</v>
+      </c>
+      <c r="N30" t="s">
+        <v>93</v>
+      </c>
+      <c r="O30" t="s">
+        <v>95</v>
+      </c>
+      <c r="P30" t="str">
         <f t="shared" si="3"/>
         <v>Multi, explizit, with coordinates</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q30" t="s">
+        <v>97</v>
+      </c>
+      <c r="R30" t="s">
+        <v>120</v>
+      </c>
+      <c r="T30" t="s">
+        <v>119</v>
+      </c>
+      <c r="U30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -2582,39 +2887,57 @@
         <v>54</v>
       </c>
       <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
         <v>55</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>37</v>
       </c>
-      <c r="G31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" t="str">
+      <c r="H31" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" t="str">
         <f t="shared" si="2"/>
         <v>Multi, explizit, with coordinates</v>
       </c>
-      <c r="I31" t="s">
-        <v>73</v>
-      </c>
       <c r="J31" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="K31" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L31" t="s">
         <v>12</v>
       </c>
       <c r="M31" t="s">
-        <v>100</v>
-      </c>
-      <c r="N31" t="str">
+        <v>19</v>
+      </c>
+      <c r="N31" t="s">
+        <v>12</v>
+      </c>
+      <c r="O31" t="s">
+        <v>95</v>
+      </c>
+      <c r="P31" t="str">
         <f t="shared" si="3"/>
         <v>Multi, explizit, with coordinates</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q31" t="s">
+        <v>98</v>
+      </c>
+      <c r="R31" t="s">
+        <v>120</v>
+      </c>
+      <c r="T31" t="s">
+        <v>121</v>
+      </c>
+      <c r="U31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -2628,39 +2951,57 @@
         <v>58</v>
       </c>
       <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
         <v>57</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>56</v>
       </c>
-      <c r="G32" t="s">
-        <v>65</v>
-      </c>
-      <c r="H32" t="str">
+      <c r="H32" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" t="str">
         <f t="shared" si="2"/>
         <v>Multi, explizit, with coordinates</v>
       </c>
-      <c r="I32" t="s">
-        <v>67</v>
-      </c>
       <c r="J32" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="K32" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L32" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M32" t="s">
-        <v>100</v>
-      </c>
-      <c r="N32" t="str">
+        <v>19</v>
+      </c>
+      <c r="N32" t="s">
+        <v>19</v>
+      </c>
+      <c r="O32" t="s">
+        <v>95</v>
+      </c>
+      <c r="P32" t="str">
         <f t="shared" si="3"/>
         <v>Multi, explizit, with coordinates</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q32" t="s">
+        <v>99</v>
+      </c>
+      <c r="R32" t="s">
+        <v>12</v>
+      </c>
+      <c r="T32" t="s">
+        <v>19</v>
+      </c>
+      <c r="U32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -2674,44 +3015,62 @@
         <v>27</v>
       </c>
       <c r="E33" t="s">
+        <v>149</v>
+      </c>
+      <c r="F33" t="s">
         <v>59</v>
       </c>
-      <c r="F33" t="s">
-        <v>19</v>
-      </c>
       <c r="G33" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" t="str">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I33" t="str">
         <f t="shared" si="2"/>
         <v>Multi, explizit, with coordinates</v>
       </c>
-      <c r="I33" t="s">
-        <v>68</v>
-      </c>
       <c r="J33" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="K33" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="L33" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="M33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N33" t="str">
+        <v>94</v>
+      </c>
+      <c r="N33" t="s">
+        <v>94</v>
+      </c>
+      <c r="O33" t="s">
+        <v>95</v>
+      </c>
+      <c r="P33" t="str">
         <f t="shared" si="3"/>
         <v>Multi, explizit, with coordinates</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q33" t="s">
+        <v>101</v>
+      </c>
+      <c r="R33" t="s">
+        <v>12</v>
+      </c>
+      <c r="T33" t="s">
+        <v>124</v>
+      </c>
+      <c r="U33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -2723,354 +3082,499 @@
         <v>12</v>
       </c>
       <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>125</v>
+      </c>
+      <c r="H34" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="2"/>
+        <v>Summary, implizit</v>
+      </c>
+      <c r="J34" t="s">
         <v>61</v>
       </c>
-      <c r="G34" t="s">
-        <v>65</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="2"/>
-        <v>Summary, implizit, no coordinates</v>
+      <c r="K34" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" t="s">
+        <v>12</v>
       </c>
       <c r="M34" t="s">
-        <v>100</v>
-      </c>
-      <c r="N34" t="str">
-        <f t="shared" si="3"/>
-        <v>Summary, implizit, no coordinates</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="N34" t="s">
+        <v>19</v>
+      </c>
+      <c r="O34" t="s">
+        <v>95</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="3"/>
+        <v>Summary, implizit</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>97</v>
+      </c>
+      <c r="R34" t="s">
+        <v>12</v>
+      </c>
+      <c r="T34" t="s">
+        <v>19</v>
+      </c>
+      <c r="U34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
       <c r="G35" t="s">
-        <v>65</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="2"/>
-        <v>Summary, implizit, no coordinates</v>
+        <v>19</v>
+      </c>
+      <c r="H35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="2"/>
+        <v>Summary, implizit</v>
+      </c>
+      <c r="J35" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" t="s">
+        <v>12</v>
       </c>
       <c r="M35" t="s">
-        <v>100</v>
-      </c>
-      <c r="N35" t="str">
-        <f t="shared" si="3"/>
-        <v>Summary, implizit, no coordinates</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="N35" t="s">
+        <v>19</v>
+      </c>
+      <c r="O35" t="s">
+        <v>95</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="3"/>
+        <v>Summary, implizit</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>98</v>
+      </c>
+      <c r="R35" t="s">
+        <v>12</v>
+      </c>
+      <c r="T35" t="s">
+        <v>116</v>
+      </c>
+      <c r="U35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>130</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>126</v>
       </c>
       <c r="G36" t="s">
-        <v>65</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="2"/>
-        <v>Summary, implizit, no coordinates</v>
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="2"/>
+        <v>Summary, implizit</v>
+      </c>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" t="s">
+        <v>12</v>
       </c>
       <c r="M36" t="s">
-        <v>100</v>
-      </c>
-      <c r="N36" t="str">
-        <f t="shared" si="3"/>
-        <v>Summary, implizit, no coordinates</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="N36" t="s">
+        <v>134</v>
+      </c>
+      <c r="O36" t="s">
+        <v>95</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="3"/>
+        <v>Summary, implizit</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>99</v>
+      </c>
+      <c r="R36" t="s">
+        <v>12</v>
+      </c>
+      <c r="T36" t="s">
+        <v>12</v>
+      </c>
+      <c r="U36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>130</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" t="s">
+        <v>27</v>
       </c>
       <c r="G37" t="s">
-        <v>65</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="2"/>
-        <v>Summary, implizit, no coordinates</v>
+        <v>128</v>
+      </c>
+      <c r="H37" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="2"/>
+        <v>Summary, implizit</v>
+      </c>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" t="s">
+        <v>12</v>
       </c>
       <c r="M37" t="s">
-        <v>100</v>
-      </c>
-      <c r="N37" t="str">
-        <f t="shared" si="3"/>
-        <v>Summary, implizit, no coordinates</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="N37" t="s">
+        <v>19</v>
+      </c>
+      <c r="O37" t="s">
+        <v>95</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="3"/>
+        <v>Summary, implizit</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>101</v>
+      </c>
+      <c r="R37" t="s">
+        <v>12</v>
+      </c>
+      <c r="T37" t="s">
+        <v>138</v>
+      </c>
+      <c r="U37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
       <c r="B38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="2"/>
+        <v>Summary, explizit</v>
+      </c>
+      <c r="J38" t="s">
+        <v>61</v>
+      </c>
+      <c r="K38" t="s">
+        <v>135</v>
+      </c>
+      <c r="L38" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" t="s">
+        <v>19</v>
+      </c>
+      <c r="O38" t="s">
+        <v>95</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="3"/>
+        <v>Summary, explizit</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>97</v>
+      </c>
+      <c r="R38" t="s">
+        <v>109</v>
+      </c>
+      <c r="T38" t="s">
+        <v>142</v>
+      </c>
+      <c r="U38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="2"/>
+        <v>Summary, explizit</v>
+      </c>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+      <c r="K39" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39" t="s">
+        <v>12</v>
+      </c>
+      <c r="M39" t="s">
+        <v>19</v>
+      </c>
+      <c r="N39" t="s">
+        <v>19</v>
+      </c>
+      <c r="O39" t="s">
+        <v>95</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="3"/>
+        <v>Summary, explizit</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>98</v>
+      </c>
+      <c r="R39" t="s">
+        <v>109</v>
+      </c>
+      <c r="T39" t="s">
+        <v>139</v>
+      </c>
+      <c r="U39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="2"/>
+        <v>Summary, explizit</v>
+      </c>
+      <c r="J40" t="s">
         <v>62</v>
       </c>
-      <c r="G38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H38" t="str">
-        <f t="shared" si="2"/>
-        <v>Summary, implizit, with coordintes</v>
-      </c>
-      <c r="M38" t="s">
-        <v>100</v>
-      </c>
-      <c r="N38" t="str">
-        <f t="shared" si="3"/>
-        <v>Summary, implizit, with coordintes</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" t="s">
-        <v>65</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="2"/>
-        <v>Summary, implizit, with coordintes</v>
-      </c>
-      <c r="M39" t="s">
-        <v>100</v>
-      </c>
-      <c r="N39" t="str">
-        <f t="shared" si="3"/>
-        <v>Summary, implizit, with coordintes</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" t="s">
-        <v>65</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="2"/>
-        <v>Summary, implizit, with coordintes</v>
+      <c r="K40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" t="s">
+        <v>12</v>
       </c>
       <c r="M40" t="s">
-        <v>100</v>
-      </c>
-      <c r="N40" t="str">
-        <f t="shared" si="3"/>
-        <v>Summary, implizit, with coordintes</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="N40" t="s">
+        <v>136</v>
+      </c>
+      <c r="O40" t="s">
+        <v>95</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="3"/>
+        <v>Summary, explizit</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>99</v>
+      </c>
+      <c r="R40" t="s">
+        <v>12</v>
+      </c>
+      <c r="T40" t="s">
+        <v>12</v>
+      </c>
+      <c r="U40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>131</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" t="s">
+        <v>152</v>
+      </c>
+      <c r="F41" t="s">
+        <v>133</v>
       </c>
       <c r="G41" t="s">
-        <v>65</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="2"/>
-        <v>Summary, implizit, with coordintes</v>
+        <v>22</v>
+      </c>
+      <c r="H41" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="2"/>
+        <v>Summary, explizit</v>
+      </c>
+      <c r="J41" t="s">
+        <v>63</v>
+      </c>
+      <c r="K41" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41" t="s">
+        <v>12</v>
       </c>
       <c r="M41" t="s">
-        <v>100</v>
-      </c>
-      <c r="N41" t="str">
-        <f t="shared" si="3"/>
-        <v>Summary, implizit, with coordintes</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" t="s">
-        <v>63</v>
-      </c>
-      <c r="G42" t="s">
-        <v>65</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="2"/>
-        <v>Summary, explizit, no coordinates</v>
-      </c>
-      <c r="M42" t="s">
-        <v>100</v>
-      </c>
-      <c r="N42" t="str">
-        <f t="shared" si="3"/>
-        <v>Summary, explizit, no coordinates</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" t="s">
-        <v>63</v>
-      </c>
-      <c r="G43" t="s">
-        <v>65</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="2"/>
-        <v>Summary, explizit, no coordinates</v>
-      </c>
-      <c r="M43" t="s">
-        <v>100</v>
-      </c>
-      <c r="N43" t="str">
-        <f t="shared" si="3"/>
-        <v>Summary, explizit, no coordinates</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" t="s">
-        <v>63</v>
-      </c>
-      <c r="G44" t="s">
-        <v>65</v>
-      </c>
-      <c r="H44" t="str">
-        <f t="shared" si="2"/>
-        <v>Summary, explizit, no coordinates</v>
-      </c>
-      <c r="M44" t="s">
-        <v>100</v>
-      </c>
-      <c r="N44" t="str">
-        <f t="shared" si="3"/>
-        <v>Summary, explizit, no coordinates</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" t="s">
-        <v>63</v>
-      </c>
-      <c r="G45" t="s">
-        <v>65</v>
-      </c>
-      <c r="H45" t="str">
-        <f t="shared" si="2"/>
-        <v>Summary, explizit, no coordinates</v>
-      </c>
-      <c r="M45" t="s">
-        <v>100</v>
-      </c>
-      <c r="N45" t="str">
-        <f t="shared" si="3"/>
-        <v>Summary, explizit, no coordinates</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" t="s">
-        <v>64</v>
-      </c>
-      <c r="G46" t="s">
-        <v>65</v>
-      </c>
-      <c r="H46" t="str">
-        <f t="shared" si="2"/>
-        <v>Summary, explizit, with coordinates</v>
-      </c>
-      <c r="M46" t="s">
-        <v>100</v>
-      </c>
-      <c r="N46" t="str">
-        <f t="shared" si="3"/>
-        <v>Summary, explizit, with coordinates</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" t="s">
-        <v>64</v>
-      </c>
-      <c r="G47" t="s">
-        <v>65</v>
-      </c>
-      <c r="H47" t="str">
-        <f t="shared" si="2"/>
-        <v>Summary, explizit, with coordinates</v>
-      </c>
-      <c r="M47" t="s">
-        <v>100</v>
-      </c>
-      <c r="N47" t="str">
-        <f t="shared" si="3"/>
-        <v>Summary, explizit, with coordinates</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" t="s">
-        <v>65</v>
-      </c>
-      <c r="H48" t="str">
-        <f t="shared" si="2"/>
-        <v>Summary, explizit, with coordinates</v>
-      </c>
-      <c r="M48" t="s">
-        <v>100</v>
-      </c>
-      <c r="N48" t="str">
-        <f t="shared" si="3"/>
-        <v>Summary, explizit, with coordinates</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" t="s">
-        <v>64</v>
-      </c>
-      <c r="G49" t="s">
-        <v>65</v>
-      </c>
-      <c r="H49" t="str">
-        <f t="shared" si="2"/>
-        <v>Summary, explizit, with coordinates</v>
-      </c>
-      <c r="M49" t="s">
-        <v>100</v>
-      </c>
-      <c r="N49" t="str">
-        <f t="shared" si="3"/>
-        <v>Summary, explizit, with coordinates</v>
+        <v>12</v>
+      </c>
+      <c r="N41" t="s">
+        <v>19</v>
+      </c>
+      <c r="O41" t="s">
+        <v>95</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="3"/>
+        <v>Summary, explizit</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>101</v>
+      </c>
+      <c r="R41" t="s">
+        <v>12</v>
+      </c>
+      <c r="T41" t="s">
+        <v>141</v>
+      </c>
+      <c r="U41" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Evaluation/Ergebnisse.xlsx
+++ b/Evaluation/Ergebnisse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morge\UniProgrammieren\Bachelorarbeit\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8435A4FB-A016-409A-BC8D-D987771C287E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE015BDD-2588-40F7-B339-F5479D5E6BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{52387500-C1F9-47D4-8B59-BEB6484736D5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="168">
   <si>
     <t>Llama-3.1-8b-instruct</t>
   </si>
@@ -511,6 +511,36 @@
   </si>
   <si>
     <t>R,V, alle genannt und sogar erwähnt, dass welches direkt</t>
+  </si>
+  <si>
+    <t>R,V, sogar Power plug erkannt</t>
+  </si>
+  <si>
+    <t>R,V, sogar action plan</t>
+  </si>
+  <si>
+    <t>R,V, versteht indirect above</t>
+  </si>
+  <si>
+    <t>R,V, gibt Troubleshooting tips</t>
+  </si>
+  <si>
+    <t>R,V, gibt Vorgehensweise an</t>
+  </si>
+  <si>
+    <t>R,V, erfindet Sinne der Buttons</t>
+  </si>
+  <si>
+    <t>R, aber zu wenig auf power plug eingegangen</t>
+  </si>
+  <si>
+    <t>R,V, geht zu viel auf Buttons ein</t>
+  </si>
+  <si>
+    <t>OWL File</t>
+  </si>
+  <si>
+    <t>TXT File</t>
   </si>
 </sst>
 </file>
@@ -909,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEE0BEF-A19C-46D9-8325-50102B7F2BC2}">
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -933,154 +963,96 @@
     <col min="14" max="14" width="51.21875" customWidth="1"/>
     <col min="16" max="16" width="31.88671875" customWidth="1"/>
     <col min="17" max="17" width="54.33203125" customWidth="1"/>
-    <col min="18" max="19" width="31.44140625" customWidth="1"/>
+    <col min="18" max="18" width="31.44140625" customWidth="1"/>
+    <col min="19" max="19" width="39.109375" customWidth="1"/>
     <col min="20" max="20" width="45.21875" customWidth="1"/>
     <col min="21" max="21" width="56" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>96</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>143</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="str">
-        <f>A1</f>
+      <c r="H2" t="str">
+        <f>A2</f>
         <v>Machine</v>
       </c>
-      <c r="I1" t="str">
-        <f>B1</f>
+      <c r="I2" t="str">
+        <f>B2</f>
         <v>KG-Architektur</v>
       </c>
-      <c r="J1" t="str">
-        <f>C1</f>
+      <c r="J2" t="str">
+        <f>C2</f>
         <v>Question</v>
       </c>
-      <c r="K1" t="str">
-        <f>D1</f>
+      <c r="K2" t="str">
+        <f>D2</f>
         <v>DeepSeek-R1</v>
       </c>
-      <c r="L1" t="str">
-        <f>E1</f>
+      <c r="L2" t="str">
+        <f>E2</f>
         <v>DeepSeek-V3-0312</v>
       </c>
-      <c r="M1" t="str">
-        <f t="shared" ref="M1:N1" si="0">F1</f>
+      <c r="M2" t="str">
+        <f t="shared" ref="M2:N2" si="0">F2</f>
         <v>Llama-3.1-8b-instruct</v>
       </c>
-      <c r="N1" t="str">
+      <c r="N2" t="str">
         <f t="shared" si="0"/>
         <v>Qwen-2.5-3B</v>
       </c>
-      <c r="O1" t="str">
-        <f>A1</f>
+      <c r="O2" t="str">
+        <f>A2</f>
         <v>Machine</v>
       </c>
-      <c r="P1" t="str">
-        <f>B1</f>
+      <c r="P2" t="str">
+        <f>B2</f>
         <v>KG-Architektur</v>
       </c>
-      <c r="Q1" t="str">
-        <f>C1</f>
+      <c r="Q2" t="str">
+        <f>C2</f>
         <v>Question</v>
       </c>
-      <c r="R1" t="str">
-        <f>D1</f>
+      <c r="R2" t="str">
+        <f>D2</f>
         <v>DeepSeek-R1</v>
       </c>
-      <c r="S1" t="str">
-        <f>E1</f>
+      <c r="S2" t="str">
+        <f>E2</f>
         <v>DeepSeek-V3-0312</v>
       </c>
-      <c r="T1" t="str">
-        <f t="shared" ref="T1:U1" si="1">F1</f>
+      <c r="T2" t="str">
+        <f t="shared" ref="T2:U2" si="1">F2</f>
         <v>Llama-3.1-8b-instruct</v>
       </c>
-      <c r="U1" t="str">
+      <c r="U2" t="str">
         <f t="shared" si="1"/>
         <v>Qwen-2.5-3B</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" t="str">
-        <f>B2</f>
-        <v>Single, implizit, no coordinates</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" t="s">
-        <v>95</v>
-      </c>
-      <c r="P2" t="str">
-        <f>B2</f>
-        <v>Single, implizit, no coordinates</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="R2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
@@ -1089,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1101,20 +1073,20 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>60</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I41" si="2">B3</f>
+        <f>B3</f>
         <v>Single, implizit, no coordinates</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="L3" t="s">
         <v>12</v>
@@ -1129,17 +1101,20 @@
         <v>95</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P41" si="3">B3</f>
+        <f>B3</f>
         <v>Single, implizit, no coordinates</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R3" t="s">
         <v>12</v>
       </c>
+      <c r="S3" t="s">
+        <v>158</v>
+      </c>
       <c r="T3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="U3" t="s">
         <v>19</v>
@@ -1153,32 +1128,32 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
         <v>60</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I4:I42" si="2">B4</f>
         <v>Single, implizit, no coordinates</v>
       </c>
-      <c r="J4" t="s">
-        <v>62</v>
+      <c r="J4" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
         <v>12</v>
@@ -1193,20 +1168,23 @@
         <v>95</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="P4:P42" si="3">B4</f>
         <v>Single, implizit, no coordinates</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R4" t="s">
         <v>12</v>
       </c>
+      <c r="S4" t="s">
+        <v>12</v>
+      </c>
       <c r="T4" t="s">
         <v>12</v>
       </c>
       <c r="U4" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -1217,19 +1195,19 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
         <v>60</v>
@@ -1239,19 +1217,19 @@
         <v>Single, implizit, no coordinates</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="O5" t="s">
         <v>95</v>
@@ -1261,16 +1239,19 @@
         <v>Single, implizit, no coordinates</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R5" t="s">
-        <v>102</v>
+        <v>12</v>
+      </c>
+      <c r="S5" t="s">
+        <v>12</v>
       </c>
       <c r="T5" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="U5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -1278,63 +1259,66 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
         <v>60</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="2"/>
-        <v>Single, implizit, with coordinates</v>
+        <v>Single, implizit, no coordinates</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="L6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N6" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="O6" t="s">
         <v>95</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="3"/>
-        <v>Single, implizit, with coordinates</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>97</v>
+        <v>Single, implizit, no coordinates</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="R6" t="s">
+        <v>102</v>
+      </c>
+      <c r="S6" t="s">
         <v>12</v>
       </c>
       <c r="T6" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="U6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -1345,19 +1329,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
         <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
       </c>
       <c r="H7" t="s">
         <v>60</v>
@@ -1367,16 +1351,16 @@
         <v>Single, implizit, with coordinates</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N7" t="s">
         <v>19</v>
@@ -1389,16 +1373,19 @@
         <v>Single, implizit, with coordinates</v>
       </c>
       <c r="Q7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R7" t="s">
         <v>12</v>
       </c>
+      <c r="S7" t="s">
+        <v>12</v>
+      </c>
       <c r="T7" t="s">
         <v>12</v>
       </c>
       <c r="U7" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -1409,19 +1396,19 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
         <v>60</v>
@@ -1431,19 +1418,19 @@
         <v>Single, implizit, with coordinates</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="M8" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="N8" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="O8" t="s">
         <v>95</v>
@@ -1453,9 +1440,12 @@
         <v>Single, implizit, with coordinates</v>
       </c>
       <c r="Q8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" t="s">
         <v>12</v>
       </c>
       <c r="T8" t="s">
@@ -1473,19 +1463,19 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
         <v>60</v>
@@ -1495,7 +1485,7 @@
         <v>Single, implizit, with coordinates</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
@@ -1507,7 +1497,7 @@
         <v>12</v>
       </c>
       <c r="N9" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="O9" t="s">
         <v>95</v>
@@ -1517,13 +1507,16 @@
         <v>Single, implizit, with coordinates</v>
       </c>
       <c r="Q9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R9" t="s">
         <v>12</v>
       </c>
+      <c r="S9" t="s">
+        <v>12</v>
+      </c>
       <c r="T9" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="U9" t="s">
         <v>19</v>
@@ -1534,32 +1527,32 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
         <v>60</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="2"/>
-        <v>Single, explizit, no coordinates</v>
+        <v>Single, implizit, with coordinates</v>
       </c>
       <c r="J10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
@@ -1568,29 +1561,32 @@
         <v>12</v>
       </c>
       <c r="M10" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="N10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O10" t="s">
         <v>95</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="3"/>
-        <v>Single, explizit, no coordinates</v>
+        <v>Single, implizit, with coordinates</v>
       </c>
       <c r="Q10" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="R10" t="s">
         <v>12</v>
       </c>
+      <c r="S10" t="s">
+        <v>159</v>
+      </c>
       <c r="T10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1601,19 +1597,19 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
         <v>60</v>
@@ -1623,7 +1619,7 @@
         <v>Single, explizit, no coordinates</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
@@ -1632,10 +1628,10 @@
         <v>12</v>
       </c>
       <c r="M11" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="N11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O11" t="s">
         <v>95</v>
@@ -1645,16 +1641,19 @@
         <v>Single, explizit, no coordinates</v>
       </c>
       <c r="Q11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R11" t="s">
         <v>12</v>
       </c>
+      <c r="S11" t="s">
+        <v>12</v>
+      </c>
       <c r="T11" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="U11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1665,7 +1664,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -1674,10 +1673,10 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
         <v>60</v>
@@ -1687,7 +1686,7 @@
         <v>Single, explizit, no coordinates</v>
       </c>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
@@ -1696,10 +1695,10 @@
         <v>12</v>
       </c>
       <c r="M12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N12" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="O12" t="s">
         <v>95</v>
@@ -1709,13 +1708,16 @@
         <v>Single, explizit, no coordinates</v>
       </c>
       <c r="Q12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R12" t="s">
         <v>12</v>
       </c>
+      <c r="S12" t="s">
+        <v>160</v>
+      </c>
       <c r="T12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="U12" t="s">
         <v>19</v>
@@ -1729,19 +1731,19 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
         <v>60</v>
@@ -1751,19 +1753,19 @@
         <v>Single, explizit, no coordinates</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K13" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O13" t="s">
         <v>95</v>
@@ -1773,16 +1775,19 @@
         <v>Single, explizit, no coordinates</v>
       </c>
       <c r="Q13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R13" t="s">
         <v>12</v>
       </c>
+      <c r="S13" t="s">
+        <v>12</v>
+      </c>
       <c r="T13" t="s">
         <v>12</v>
       </c>
       <c r="U13" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -1790,63 +1795,66 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H14" t="s">
         <v>60</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="2"/>
-        <v>Single, explizit, with coordinates</v>
+        <v>Single, explizit, no coordinates</v>
       </c>
       <c r="J14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K14" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O14" t="s">
         <v>95</v>
       </c>
       <c r="P14" t="str">
         <f t="shared" si="3"/>
-        <v>Single, explizit, with coordinates</v>
+        <v>Single, explizit, no coordinates</v>
       </c>
       <c r="Q14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="R14" t="s">
         <v>12</v>
       </c>
+      <c r="S14" t="s">
+        <v>161</v>
+      </c>
       <c r="T14" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="U14" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1856,11 +1864,11 @@
       <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -1869,7 +1877,7 @@
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
         <v>60</v>
@@ -1879,19 +1887,19 @@
         <v>Single, explizit, with coordinates</v>
       </c>
       <c r="J15" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K15" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="L15" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="M15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N15" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="O15" t="s">
         <v>95</v>
@@ -1901,13 +1909,16 @@
         <v>Single, explizit, with coordinates</v>
       </c>
       <c r="Q15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R15" t="s">
         <v>12</v>
       </c>
+      <c r="S15" t="s">
+        <v>12</v>
+      </c>
       <c r="T15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U15" t="s">
         <v>19</v>
@@ -1921,16 +1932,16 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
         <v>19</v>
@@ -1943,19 +1954,19 @@
         <v>Single, explizit, with coordinates</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K16" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="L16" t="s">
         <v>12</v>
       </c>
       <c r="M16" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="N16" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="O16" t="s">
         <v>95</v>
@@ -1965,16 +1976,19 @@
         <v>Single, explizit, with coordinates</v>
       </c>
       <c r="Q16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R16" t="s">
         <v>12</v>
       </c>
+      <c r="S16" t="s">
+        <v>12</v>
+      </c>
       <c r="T16" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="U16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -1985,19 +1999,19 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
         <v>60</v>
@@ -2007,10 +2021,10 @@
         <v>Single, explizit, with coordinates</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K17" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="L17" t="s">
         <v>12</v>
@@ -2019,7 +2033,7 @@
         <v>12</v>
       </c>
       <c r="N17" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="O17" t="s">
         <v>95</v>
@@ -2029,16 +2043,19 @@
         <v>Single, explizit, with coordinates</v>
       </c>
       <c r="Q17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R17" t="s">
         <v>12</v>
       </c>
+      <c r="S17" t="s">
+        <v>12</v>
+      </c>
       <c r="T17" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="U17" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -2046,63 +2063,66 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
         <v>60</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="2"/>
-        <v>Multi, implizit, no coordinates</v>
+        <v>Single, explizit, with coordinates</v>
       </c>
       <c r="J18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K18" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="L18" t="s">
         <v>12</v>
       </c>
       <c r="M18" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="N18" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="O18" t="s">
         <v>95</v>
       </c>
       <c r="P18" t="str">
         <f t="shared" si="3"/>
-        <v>Multi, implizit, no coordinates</v>
+        <v>Single, explizit, with coordinates</v>
       </c>
       <c r="Q18" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="R18" t="s">
         <v>12</v>
       </c>
+      <c r="S18" t="s">
+        <v>162</v>
+      </c>
       <c r="T18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -2113,19 +2133,19 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
         <v>60</v>
@@ -2135,19 +2155,19 @@
         <v>Multi, implizit, no coordinates</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K19" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="L19" t="s">
         <v>12</v>
       </c>
       <c r="M19" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="N19" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="O19" t="s">
         <v>95</v>
@@ -2157,9 +2177,12 @@
         <v>Multi, implizit, no coordinates</v>
       </c>
       <c r="Q19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R19" t="s">
+        <v>12</v>
+      </c>
+      <c r="S19" t="s">
         <v>12</v>
       </c>
       <c r="T19" t="s">
@@ -2177,16 +2200,16 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
         <v>37</v>
@@ -2199,19 +2222,19 @@
         <v>Multi, implizit, no coordinates</v>
       </c>
       <c r="J20" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K20" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="L20" t="s">
         <v>12</v>
       </c>
       <c r="M20" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N20" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="O20" t="s">
         <v>95</v>
@@ -2221,16 +2244,19 @@
         <v>Multi, implizit, no coordinates</v>
       </c>
       <c r="Q20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R20" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" t="s">
         <v>12</v>
       </c>
       <c r="T20" t="s">
         <v>112</v>
       </c>
       <c r="U20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -2241,19 +2267,19 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
         <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H21" t="s">
         <v>60</v>
@@ -2263,7 +2289,7 @@
         <v>Multi, implizit, no coordinates</v>
       </c>
       <c r="J21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K21" t="s">
         <v>12</v>
@@ -2272,10 +2298,10 @@
         <v>12</v>
       </c>
       <c r="M21" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="N21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O21" t="s">
         <v>95</v>
@@ -2285,16 +2311,19 @@
         <v>Multi, implizit, no coordinates</v>
       </c>
       <c r="Q21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R21" t="s">
         <v>12</v>
       </c>
+      <c r="S21" t="s">
+        <v>12</v>
+      </c>
       <c r="T21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U21" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -2302,32 +2331,32 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
         <v>60</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="2"/>
-        <v>Multi, implizit, with coordinates</v>
+        <v>Multi, implizit, no coordinates</v>
       </c>
       <c r="J22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K22" t="s">
         <v>12</v>
@@ -2336,29 +2365,32 @@
         <v>12</v>
       </c>
       <c r="M22" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="N22" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="O22" t="s">
         <v>95</v>
       </c>
       <c r="P22" t="str">
         <f t="shared" si="3"/>
-        <v>Multi, implizit, with coordinates</v>
+        <v>Multi, implizit, no coordinates</v>
       </c>
       <c r="Q22" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="R22" t="s">
         <v>12</v>
       </c>
+      <c r="S22" t="s">
+        <v>12</v>
+      </c>
       <c r="T22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="U22" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -2369,10 +2401,10 @@
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -2381,7 +2413,7 @@
         <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H23" t="s">
         <v>60</v>
@@ -2391,7 +2423,7 @@
         <v>Multi, implizit, with coordinates</v>
       </c>
       <c r="J23" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K23" t="s">
         <v>12</v>
@@ -2400,10 +2432,10 @@
         <v>12</v>
       </c>
       <c r="M23" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N23" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="O23" t="s">
         <v>95</v>
@@ -2413,16 +2445,19 @@
         <v>Multi, implizit, with coordinates</v>
       </c>
       <c r="Q23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R23" t="s">
         <v>12</v>
       </c>
+      <c r="S23" t="s">
+        <v>12</v>
+      </c>
       <c r="T23" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="U23" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
@@ -2433,19 +2468,19 @@
         <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
         <v>60</v>
@@ -2455,7 +2490,7 @@
         <v>Multi, implizit, with coordinates</v>
       </c>
       <c r="J24" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K24" t="s">
         <v>12</v>
@@ -2464,10 +2499,10 @@
         <v>12</v>
       </c>
       <c r="M24" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="N24" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="O24" t="s">
         <v>95</v>
@@ -2477,13 +2512,16 @@
         <v>Multi, implizit, with coordinates</v>
       </c>
       <c r="Q24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R24" t="s">
         <v>12</v>
       </c>
+      <c r="S24" t="s">
+        <v>12</v>
+      </c>
       <c r="T24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U24" t="s">
         <v>19</v>
@@ -2497,19 +2535,19 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H25" t="s">
         <v>60</v>
@@ -2519,19 +2557,19 @@
         <v>Multi, implizit, with coordinates</v>
       </c>
       <c r="J25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="L25" t="s">
         <v>12</v>
       </c>
       <c r="M25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N25" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="O25" t="s">
         <v>95</v>
@@ -2541,13 +2579,16 @@
         <v>Multi, implizit, with coordinates</v>
       </c>
       <c r="Q25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R25" t="s">
         <v>12</v>
       </c>
+      <c r="S25" t="s">
+        <v>12</v>
+      </c>
       <c r="T25" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="U25" t="s">
         <v>19</v>
@@ -2558,60 +2599,63 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
         <v>60</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="2"/>
-        <v>Multi, explizit, no coordinates</v>
+        <v>Multi, implizit, with coordinates</v>
       </c>
       <c r="J26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K26" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="L26" t="s">
         <v>12</v>
       </c>
       <c r="M26" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="N26" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="O26" t="s">
         <v>95</v>
       </c>
       <c r="P26" t="str">
         <f t="shared" si="3"/>
-        <v>Multi, explizit, no coordinates</v>
+        <v>Multi, implizit, with coordinates</v>
       </c>
       <c r="Q26" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="R26" t="s">
         <v>12</v>
       </c>
+      <c r="S26" t="s">
+        <v>163</v>
+      </c>
       <c r="T26" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="U26" t="s">
         <v>19</v>
@@ -2625,19 +2669,19 @@
         <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H27" t="s">
         <v>60</v>
@@ -2647,7 +2691,7 @@
         <v>Multi, explizit, no coordinates</v>
       </c>
       <c r="J27" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K27" t="s">
         <v>12</v>
@@ -2669,13 +2713,16 @@
         <v>Multi, explizit, no coordinates</v>
       </c>
       <c r="Q27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R27" t="s">
         <v>12</v>
       </c>
+      <c r="S27" t="s">
+        <v>12</v>
+      </c>
       <c r="T27" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="U27" t="s">
         <v>19</v>
@@ -2689,7 +2736,7 @@
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
         <v>38</v>
@@ -2698,10 +2745,10 @@
         <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
         <v>60</v>
@@ -2711,7 +2758,7 @@
         <v>Multi, explizit, no coordinates</v>
       </c>
       <c r="J28" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K28" t="s">
         <v>12</v>
@@ -2720,7 +2767,7 @@
         <v>12</v>
       </c>
       <c r="M28" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N28" t="s">
         <v>19</v>
@@ -2733,13 +2780,16 @@
         <v>Multi, explizit, no coordinates</v>
       </c>
       <c r="Q28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R28" t="s">
         <v>12</v>
       </c>
+      <c r="S28" t="s">
+        <v>12</v>
+      </c>
       <c r="T28" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="U28" t="s">
         <v>19</v>
@@ -2753,19 +2803,19 @@
         <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s">
         <v>60</v>
@@ -2775,7 +2825,7 @@
         <v>Multi, explizit, no coordinates</v>
       </c>
       <c r="J29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K29" t="s">
         <v>12</v>
@@ -2797,13 +2847,16 @@
         <v>Multi, explizit, no coordinates</v>
       </c>
       <c r="Q29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R29" t="s">
         <v>12</v>
       </c>
+      <c r="S29" t="s">
+        <v>12</v>
+      </c>
       <c r="T29" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="U29" t="s">
         <v>19</v>
@@ -2814,32 +2867,32 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s">
         <v>60</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="2"/>
-        <v>Multi, explizit, with coordinates</v>
+        <v>Multi, explizit, no coordinates</v>
       </c>
       <c r="J30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K30" t="s">
         <v>12</v>
@@ -2848,29 +2901,32 @@
         <v>12</v>
       </c>
       <c r="M30" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N30" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="O30" t="s">
         <v>95</v>
       </c>
       <c r="P30" t="str">
         <f t="shared" si="3"/>
-        <v>Multi, explizit, with coordinates</v>
+        <v>Multi, explizit, no coordinates</v>
       </c>
       <c r="Q30" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="R30" t="s">
-        <v>120</v>
+        <v>12</v>
+      </c>
+      <c r="S30" t="s">
+        <v>12</v>
       </c>
       <c r="T30" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="U30" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
@@ -2881,16 +2937,16 @@
         <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
         <v>37</v>
@@ -2903,7 +2959,7 @@
         <v>Multi, explizit, with coordinates</v>
       </c>
       <c r="J31" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K31" t="s">
         <v>12</v>
@@ -2915,7 +2971,7 @@
         <v>19</v>
       </c>
       <c r="N31" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="O31" t="s">
         <v>95</v>
@@ -2925,13 +2981,16 @@
         <v>Multi, explizit, with coordinates</v>
       </c>
       <c r="Q31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R31" t="s">
         <v>120</v>
       </c>
+      <c r="S31" t="s">
+        <v>12</v>
+      </c>
       <c r="T31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U31" t="s">
         <v>56</v>
@@ -2945,19 +3004,19 @@
         <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="H32" t="s">
         <v>60</v>
@@ -2967,7 +3026,7 @@
         <v>Multi, explizit, with coordinates</v>
       </c>
       <c r="J32" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K32" t="s">
         <v>12</v>
@@ -2979,7 +3038,7 @@
         <v>19</v>
       </c>
       <c r="N32" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="O32" t="s">
         <v>95</v>
@@ -2989,16 +3048,19 @@
         <v>Multi, explizit, with coordinates</v>
       </c>
       <c r="Q32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R32" t="s">
+        <v>120</v>
+      </c>
+      <c r="S32" t="s">
         <v>12</v>
       </c>
       <c r="T32" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="U32" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
@@ -3009,19 +3071,19 @@
         <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G33" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="H33" t="s">
         <v>60</v>
@@ -3031,7 +3093,7 @@
         <v>Multi, explizit, with coordinates</v>
       </c>
       <c r="J33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K33" t="s">
         <v>12</v>
@@ -3040,10 +3102,10 @@
         <v>12</v>
       </c>
       <c r="M33" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="N33" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="O33" t="s">
         <v>95</v>
@@ -3053,16 +3115,19 @@
         <v>Multi, explizit, with coordinates</v>
       </c>
       <c r="Q33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R33" t="s">
         <v>12</v>
       </c>
+      <c r="S33" t="s">
+        <v>12</v>
+      </c>
       <c r="T33" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="U33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
@@ -3070,32 +3135,32 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="G34" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
         <v>60</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="2"/>
-        <v>Summary, implizit</v>
+        <v>Multi, explizit, with coordinates</v>
       </c>
       <c r="J34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K34" t="s">
         <v>12</v>
@@ -3104,29 +3169,32 @@
         <v>12</v>
       </c>
       <c r="M34" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="N34" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="O34" t="s">
         <v>95</v>
       </c>
       <c r="P34" t="str">
         <f t="shared" si="3"/>
-        <v>Summary, implizit</v>
+        <v>Multi, explizit, with coordinates</v>
       </c>
       <c r="Q34" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="R34" t="s">
         <v>12</v>
       </c>
+      <c r="S34" t="s">
+        <v>12</v>
+      </c>
       <c r="T34" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="U34" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -3137,7 +3205,7 @@
         <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
@@ -3149,7 +3217,7 @@
         <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="H35" t="s">
         <v>60</v>
@@ -3159,7 +3227,7 @@
         <v>Summary, implizit</v>
       </c>
       <c r="J35" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K35" t="s">
         <v>12</v>
@@ -3181,13 +3249,16 @@
         <v>Summary, implizit</v>
       </c>
       <c r="Q35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R35" t="s">
         <v>12</v>
       </c>
+      <c r="S35" t="s">
+        <v>12</v>
+      </c>
       <c r="T35" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="U35" t="s">
         <v>19</v>
@@ -3201,19 +3272,19 @@
         <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
         <v>60</v>
@@ -3223,7 +3294,7 @@
         <v>Summary, implizit</v>
       </c>
       <c r="J36" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K36" t="s">
         <v>12</v>
@@ -3235,7 +3306,7 @@
         <v>19</v>
       </c>
       <c r="N36" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="O36" t="s">
         <v>95</v>
@@ -3245,16 +3316,19 @@
         <v>Summary, implizit</v>
       </c>
       <c r="Q36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R36" t="s">
         <v>12</v>
       </c>
+      <c r="S36" t="s">
+        <v>12</v>
+      </c>
       <c r="T36" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="U36" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
@@ -3265,19 +3339,19 @@
         <v>130</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E37" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="G37" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="H37" t="s">
         <v>60</v>
@@ -3287,7 +3361,7 @@
         <v>Summary, implizit</v>
       </c>
       <c r="J37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K37" t="s">
         <v>12</v>
@@ -3296,10 +3370,10 @@
         <v>12</v>
       </c>
       <c r="M37" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N37" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="O37" t="s">
         <v>95</v>
@@ -3309,16 +3383,19 @@
         <v>Summary, implizit</v>
       </c>
       <c r="Q37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R37" t="s">
         <v>12</v>
       </c>
+      <c r="S37" t="s">
+        <v>12</v>
+      </c>
       <c r="T37" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="U37" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
@@ -3326,35 +3403,35 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="H38" t="s">
         <v>60</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="2"/>
-        <v>Summary, explizit</v>
+        <v>Summary, implizit</v>
       </c>
       <c r="J38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K38" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="L38" t="s">
         <v>12</v>
@@ -3370,19 +3447,22 @@
       </c>
       <c r="P38" t="str">
         <f t="shared" si="3"/>
-        <v>Summary, explizit</v>
+        <v>Summary, implizit</v>
       </c>
       <c r="Q38" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="R38" t="s">
-        <v>109</v>
+        <v>12</v>
+      </c>
+      <c r="S38" t="s">
+        <v>164</v>
       </c>
       <c r="T38" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="U38" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
@@ -3393,19 +3473,19 @@
         <v>131</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
         <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H39" t="s">
         <v>60</v>
@@ -3415,16 +3495,16 @@
         <v>Summary, explizit</v>
       </c>
       <c r="J39" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K39" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="L39" t="s">
         <v>12</v>
       </c>
       <c r="M39" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N39" t="s">
         <v>19</v>
@@ -3437,13 +3517,16 @@
         <v>Summary, explizit</v>
       </c>
       <c r="Q39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R39" t="s">
         <v>109</v>
       </c>
+      <c r="S39" t="s">
+        <v>12</v>
+      </c>
       <c r="T39" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="U39" t="s">
         <v>109</v>
@@ -3457,19 +3540,19 @@
         <v>131</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
         <v>60</v>
@@ -3479,7 +3562,7 @@
         <v>Summary, explizit</v>
       </c>
       <c r="J40" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K40" t="s">
         <v>12</v>
@@ -3488,10 +3571,10 @@
         <v>12</v>
       </c>
       <c r="M40" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N40" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="O40" t="s">
         <v>95</v>
@@ -3501,16 +3584,19 @@
         <v>Summary, explizit</v>
       </c>
       <c r="Q40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R40" t="s">
+        <v>109</v>
+      </c>
+      <c r="S40" t="s">
         <v>12</v>
       </c>
       <c r="T40" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="U40" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
@@ -3521,19 +3607,19 @@
         <v>131</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="H41" t="s">
         <v>60</v>
@@ -3543,7 +3629,7 @@
         <v>Summary, explizit</v>
       </c>
       <c r="J41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K41" t="s">
         <v>12</v>
@@ -3555,7 +3641,7 @@
         <v>12</v>
       </c>
       <c r="N41" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="O41" t="s">
         <v>95</v>
@@ -3565,16 +3651,91 @@
         <v>Summary, explizit</v>
       </c>
       <c r="Q41" t="s">
+        <v>99</v>
+      </c>
+      <c r="R41" t="s">
+        <v>12</v>
+      </c>
+      <c r="S41" t="s">
+        <v>12</v>
+      </c>
+      <c r="T41" t="s">
+        <v>12</v>
+      </c>
+      <c r="U41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" t="s">
+        <v>152</v>
+      </c>
+      <c r="F42" t="s">
+        <v>133</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" t="s">
+        <v>60</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="2"/>
+        <v>Summary, explizit</v>
+      </c>
+      <c r="J42" t="s">
+        <v>63</v>
+      </c>
+      <c r="K42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" t="s">
+        <v>12</v>
+      </c>
+      <c r="N42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="3"/>
+        <v>Summary, explizit</v>
+      </c>
+      <c r="Q42" t="s">
         <v>101</v>
       </c>
-      <c r="R41" t="s">
-        <v>12</v>
-      </c>
-      <c r="T41" t="s">
+      <c r="R42" t="s">
+        <v>12</v>
+      </c>
+      <c r="S42" t="s">
+        <v>165</v>
+      </c>
+      <c r="T42" t="s">
         <v>141</v>
       </c>
-      <c r="U41" t="s">
+      <c r="U42" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Evaluation/Ergebnisse.xlsx
+++ b/Evaluation/Ergebnisse.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morge\UniProgrammieren\Bachelorarbeit\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE015BDD-2588-40F7-B339-F5479D5E6BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050B15E6-58D9-4D65-AA97-5AEAFA893A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{52387500-C1F9-47D4-8B59-BEB6484736D5}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" activeTab="1" xr2:uid="{52387500-C1F9-47D4-8B59-BEB6484736D5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="231">
   <si>
     <t>Llama-3.1-8b-instruct</t>
   </si>
@@ -541,6 +541,195 @@
   </si>
   <si>
     <t>TXT File</t>
+  </si>
+  <si>
+    <t>R,V, hat mit coords seine vorherigen Fehler vestanden</t>
+  </si>
+  <si>
+    <t>R,V, nennt inspection points und temperature limit</t>
+  </si>
+  <si>
+    <t>R, aber nennt nur coordinates</t>
+  </si>
+  <si>
+    <t>Falsche Antwort, versteht Frage nicht</t>
+  </si>
+  <si>
+    <t>R,V, aber für jede Cam einzeln</t>
+  </si>
+  <si>
+    <t>R,V, komisch formuliert</t>
+  </si>
+  <si>
+    <t>R,V, gibt an, was kaputt gegangen sein könnte</t>
+  </si>
+  <si>
+    <t>R, aber für jede Cam einzeln</t>
+  </si>
+  <si>
+    <t>Nicht zieltragend, gibt alles für jede Cam aus</t>
+  </si>
+  <si>
+    <t>R, aber sehr ungeschickt ausgedrückt</t>
+  </si>
+  <si>
+    <t>R,V, alle relationen genannt</t>
+  </si>
+  <si>
+    <t>R, Grinding wheel 2 und Lamp fehlt</t>
+  </si>
+  <si>
+    <t>Falsche Antwort (sagt Drilling head, aber below it)</t>
+  </si>
+  <si>
+    <t>V, aber nennt alle</t>
+  </si>
+  <si>
+    <t>R, aber nennt falsches (alles ist genaugenommen drüber)</t>
+  </si>
+  <si>
+    <t>R,V, nennt alle</t>
+  </si>
+  <si>
+    <t>Falsche Antwort (sagt cover, aber below)</t>
+  </si>
+  <si>
+    <t>Nennt alle und Motor?</t>
+  </si>
+  <si>
+    <t>R, über Cover fehlt</t>
+  </si>
+  <si>
+    <t>Richtige Objects, aber below ist falsch</t>
+  </si>
+  <si>
+    <t>V, aber nennt alle + Motor?</t>
+  </si>
+  <si>
+    <t>R, aber eig alle</t>
+  </si>
+  <si>
+    <t>Falsche Antwort, sehr kreativ</t>
+  </si>
+  <si>
+    <t>Falsche Antwort (Buttons vertauscht)</t>
+  </si>
+  <si>
+    <t>R,V (nennt beide)</t>
+  </si>
+  <si>
+    <t>R, unvollständig aber Ansatz gut</t>
+  </si>
+  <si>
+    <t>R,unvollständig</t>
+  </si>
+  <si>
+    <t>Falsche Antwort (nennt nur Namen, nicht Position)</t>
+  </si>
+  <si>
+    <t>R, unvollständig, fasst Cams nicht zusammen</t>
+  </si>
+  <si>
+    <t>Ontology nicht verstanden</t>
+  </si>
+  <si>
+    <t>R, sehr umfangreich aber ungenau</t>
+  </si>
+  <si>
+    <t>Falsche Antwort (sagt Component A)</t>
+  </si>
+  <si>
+    <t>R, aber sehr ungenau</t>
+  </si>
+  <si>
+    <t>R, aber sagt nicht die genaue Position sondern nur Name</t>
+  </si>
+  <si>
+    <t>Falsche Antwort, versteht Richtungen der Relationen nicht</t>
+  </si>
+  <si>
+    <t>Falsche Antwort, viel Halluzinationen</t>
+  </si>
+  <si>
+    <t>Falsch, versteht frage, aber halluziniert viel</t>
+  </si>
+  <si>
+    <t>Falsche Antwort, gibt query code aus</t>
+  </si>
+  <si>
+    <t>V, aber nennt cover</t>
+  </si>
+  <si>
+    <t>R, aber eig alle (gibt nur 2 aus)</t>
+  </si>
+  <si>
+    <t>R, aber nennt einzeln</t>
+  </si>
+  <si>
+    <t>R, aber nennt einzelne cams</t>
+  </si>
+  <si>
+    <t>Falsche Antwort, zeigt xml code</t>
+  </si>
+  <si>
+    <t>Falsche Antwort, für jedes Housing einzeln (2,0,0 buttons)</t>
+  </si>
+  <si>
+    <t>R, geht nur auf cam s1 ein</t>
+  </si>
+  <si>
+    <t>R, aber sehr viel overhead und nur eine cam</t>
+  </si>
+  <si>
+    <t>Falsche Antwort (zu allgemein, nicht auf Maschine bezogen)</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>R, versteht mehrere Cams nicht</t>
+  </si>
+  <si>
+    <t>Falsche Antwort (zu allgemein)</t>
+  </si>
+  <si>
+    <t>R, aber geht nur auf eine cam ein</t>
+  </si>
+  <si>
+    <t>R, geht aber nur auf eine cam ein</t>
+  </si>
+  <si>
+    <t>V, aber nennt alle components</t>
+  </si>
+  <si>
+    <t>R,V, nennt alle außer table, was richtig ist</t>
+  </si>
+  <si>
+    <t>R, aber geht nur auf eine cam ein, paar fehlen</t>
+  </si>
+  <si>
+    <t>Falsche Antwort, verweigert Aussage</t>
+  </si>
+  <si>
+    <t>R, sehr viel overhead</t>
+  </si>
+  <si>
+    <t>R,V, aber unnötig langes reasoning</t>
+  </si>
+  <si>
+    <t>Falsche Antwort, sehr viel overhead</t>
+  </si>
+  <si>
+    <t>Falsche Antwort (findet unteren Hebel nicht)</t>
+  </si>
+  <si>
+    <t>Falsche Antwort (sagt in der Mitte)</t>
+  </si>
+  <si>
+    <t>R, ein Hebel fehlt</t>
+  </si>
+  <si>
+    <t>R, paar fehlen</t>
   </si>
 </sst>
 </file>
@@ -938,11 +1127,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96240111-63F1-45A6-89CC-6431EF65BA8D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEE0BEF-A19C-46D9-8325-50102B7F2BC2}">
-  <dimension ref="A1:U44"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="M12" zoomScale="81" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -951,9 +1152,9 @@
     <col min="2" max="2" width="32.21875" customWidth="1"/>
     <col min="3" max="3" width="49.33203125" customWidth="1"/>
     <col min="4" max="4" width="47.109375" customWidth="1"/>
-    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" customWidth="1"/>
     <col min="6" max="6" width="39.33203125" customWidth="1"/>
-    <col min="7" max="7" width="48" customWidth="1"/>
+    <col min="7" max="7" width="49.33203125" customWidth="1"/>
     <col min="8" max="8" width="20.77734375" customWidth="1"/>
     <col min="9" max="9" width="34.109375" customWidth="1"/>
     <col min="10" max="10" width="50.88671875" customWidth="1"/>
@@ -1117,7 +1318,7 @@
         <v>19</v>
       </c>
       <c r="U3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -1184,7 +1385,7 @@
         <v>12</v>
       </c>
       <c r="U4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -1229,7 +1430,7 @@
         <v>12</v>
       </c>
       <c r="N5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="O5" t="s">
         <v>95</v>
@@ -1251,7 +1452,7 @@
         <v>12</v>
       </c>
       <c r="U5" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -1296,7 +1497,7 @@
         <v>65</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="O6" t="s">
         <v>95</v>
@@ -1318,7 +1519,7 @@
         <v>103</v>
       </c>
       <c r="U6" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -1363,7 +1564,7 @@
         <v>67</v>
       </c>
       <c r="N7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="O7" t="s">
         <v>95</v>
@@ -1385,7 +1586,7 @@
         <v>12</v>
       </c>
       <c r="U7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -1452,7 +1653,7 @@
         <v>12</v>
       </c>
       <c r="U8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -1497,7 +1698,7 @@
         <v>12</v>
       </c>
       <c r="N9" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
         <v>95</v>
@@ -1519,7 +1720,7 @@
         <v>12</v>
       </c>
       <c r="U9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -1564,7 +1765,7 @@
         <v>12</v>
       </c>
       <c r="N10" t="s">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="O10" t="s">
         <v>95</v>
@@ -1586,7 +1787,7 @@
         <v>106</v>
       </c>
       <c r="U10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1653,7 +1854,7 @@
         <v>107</v>
       </c>
       <c r="U11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1698,7 +1899,7 @@
         <v>80</v>
       </c>
       <c r="N12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O12" t="s">
         <v>95</v>
@@ -1720,7 +1921,7 @@
         <v>19</v>
       </c>
       <c r="U12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1765,7 +1966,7 @@
         <v>75</v>
       </c>
       <c r="N13" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="O13" t="s">
         <v>95</v>
@@ -1787,7 +1988,7 @@
         <v>12</v>
       </c>
       <c r="U13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -1832,7 +2033,7 @@
         <v>82</v>
       </c>
       <c r="N14" t="s">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="O14" t="s">
         <v>95</v>
@@ -1854,7 +2055,7 @@
         <v>12</v>
       </c>
       <c r="U14" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1899,7 +2100,7 @@
         <v>78</v>
       </c>
       <c r="N15" t="s">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="O15" t="s">
         <v>95</v>
@@ -1921,7 +2122,7 @@
         <v>108</v>
       </c>
       <c r="U15" t="s">
-        <v>19</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -1966,7 +2167,7 @@
         <v>74</v>
       </c>
       <c r="N16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="O16" t="s">
         <v>95</v>
@@ -1988,7 +2189,7 @@
         <v>110</v>
       </c>
       <c r="U16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -2033,7 +2234,7 @@
         <v>12</v>
       </c>
       <c r="N17" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="O17" t="s">
         <v>95</v>
@@ -2100,7 +2301,7 @@
         <v>12</v>
       </c>
       <c r="N18" t="s">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="O18" t="s">
         <v>95</v>
@@ -2122,7 +2323,7 @@
         <v>111</v>
       </c>
       <c r="U18" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -2167,7 +2368,7 @@
         <v>84</v>
       </c>
       <c r="N19" t="s">
-        <v>83</v>
+        <v>218</v>
       </c>
       <c r="O19" t="s">
         <v>95</v>
@@ -2234,7 +2435,7 @@
         <v>19</v>
       </c>
       <c r="N20" t="s">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="O20" t="s">
         <v>95</v>
@@ -2256,7 +2457,7 @@
         <v>112</v>
       </c>
       <c r="U20" t="s">
-        <v>112</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -2301,7 +2502,7 @@
         <v>12</v>
       </c>
       <c r="N21" t="s">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="O21" t="s">
         <v>95</v>
@@ -2368,7 +2569,7 @@
         <v>88</v>
       </c>
       <c r="N22" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s">
         <v>95</v>
@@ -2435,7 +2636,7 @@
         <v>12</v>
       </c>
       <c r="N23" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="O23" t="s">
         <v>95</v>
@@ -2457,7 +2658,7 @@
         <v>112</v>
       </c>
       <c r="U23" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
@@ -2502,7 +2703,7 @@
         <v>19</v>
       </c>
       <c r="N24" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="O24" t="s">
         <v>95</v>
@@ -2569,7 +2770,7 @@
         <v>89</v>
       </c>
       <c r="N25" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="O25" t="s">
         <v>95</v>
@@ -2636,7 +2837,7 @@
         <v>91</v>
       </c>
       <c r="N26" t="s">
-        <v>92</v>
+        <v>223</v>
       </c>
       <c r="O26" t="s">
         <v>95</v>
@@ -2658,7 +2859,7 @@
         <v>19</v>
       </c>
       <c r="U26" t="s">
-        <v>19</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
@@ -2703,7 +2904,7 @@
         <v>19</v>
       </c>
       <c r="N27" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="O27" t="s">
         <v>95</v>
@@ -2725,7 +2926,7 @@
         <v>118</v>
       </c>
       <c r="U27" t="s">
-        <v>19</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
@@ -2792,7 +2993,7 @@
         <v>19</v>
       </c>
       <c r="U28" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
@@ -2837,7 +3038,7 @@
         <v>12</v>
       </c>
       <c r="N29" t="s">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="O29" t="s">
         <v>95</v>
@@ -2859,7 +3060,7 @@
         <v>113</v>
       </c>
       <c r="U29" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
@@ -2904,7 +3105,7 @@
         <v>12</v>
       </c>
       <c r="N30" t="s">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="O30" t="s">
         <v>95</v>
@@ -2926,7 +3127,7 @@
         <v>19</v>
       </c>
       <c r="U30" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
@@ -2971,7 +3172,7 @@
         <v>19</v>
       </c>
       <c r="N31" t="s">
-        <v>93</v>
+        <v>226</v>
       </c>
       <c r="O31" t="s">
         <v>95</v>
@@ -2993,7 +3194,7 @@
         <v>119</v>
       </c>
       <c r="U31" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
@@ -3038,7 +3239,7 @@
         <v>19</v>
       </c>
       <c r="N32" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="O32" t="s">
         <v>95</v>
@@ -3060,10 +3261,10 @@
         <v>121</v>
       </c>
       <c r="U32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -3127,10 +3328,10 @@
         <v>19</v>
       </c>
       <c r="U33" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -3172,7 +3373,7 @@
         <v>94</v>
       </c>
       <c r="N34" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="O34" t="s">
         <v>95</v>
@@ -3194,10 +3395,10 @@
         <v>124</v>
       </c>
       <c r="U34" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -3239,7 +3440,7 @@
         <v>19</v>
       </c>
       <c r="N35" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="O35" t="s">
         <v>95</v>
@@ -3261,10 +3462,13 @@
         <v>19</v>
       </c>
       <c r="U35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="V35" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -3306,7 +3510,7 @@
         <v>19</v>
       </c>
       <c r="N36" t="s">
-        <v>19</v>
+        <v>227</v>
       </c>
       <c r="O36" t="s">
         <v>95</v>
@@ -3328,10 +3532,10 @@
         <v>116</v>
       </c>
       <c r="U36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -3373,7 +3577,7 @@
         <v>19</v>
       </c>
       <c r="N37" t="s">
-        <v>134</v>
+        <v>228</v>
       </c>
       <c r="O37" t="s">
         <v>95</v>
@@ -3398,7 +3602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -3440,7 +3644,7 @@
         <v>12</v>
       </c>
       <c r="N38" t="s">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="O38" t="s">
         <v>95</v>
@@ -3462,10 +3666,10 @@
         <v>138</v>
       </c>
       <c r="U38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -3507,7 +3711,7 @@
         <v>12</v>
       </c>
       <c r="N39" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="O39" t="s">
         <v>95</v>
@@ -3532,7 +3736,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -3596,10 +3800,10 @@
         <v>139</v>
       </c>
       <c r="U40" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -3641,7 +3845,7 @@
         <v>12</v>
       </c>
       <c r="N41" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="O41" t="s">
         <v>95</v>
@@ -3666,7 +3870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -3708,7 +3912,7 @@
         <v>12</v>
       </c>
       <c r="N42" t="s">
-        <v>19</v>
+        <v>230</v>
       </c>
       <c r="O42" t="s">
         <v>95</v>
@@ -3730,12 +3934,3058 @@
         <v>141</v>
       </c>
       <c r="U42" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45" t="str">
+        <f>A2</f>
+        <v>Machine</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" ref="B45:U45" si="4">B2</f>
+        <v>KG-Architektur</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="4"/>
+        <v>Question</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="4"/>
+        <v>DeepSeek-R1</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="4"/>
+        <v>DeepSeek-V3-0312</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="4"/>
+        <v>Llama-3.1-8b-instruct</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="4"/>
+        <v>Qwen-2.5-3B</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="4"/>
+        <v>Machine</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="4"/>
+        <v>KG-Architektur</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="4"/>
+        <v>Question</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="4"/>
+        <v>DeepSeek-R1</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="4"/>
+        <v>DeepSeek-V3-0312</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="4"/>
+        <v>Llama-3.1-8b-instruct</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="4"/>
+        <v>Qwen-2.5-3B</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="4"/>
+        <v>Machine</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="4"/>
+        <v>KG-Architektur</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="4"/>
+        <v>Question</v>
+      </c>
+      <c r="R45" t="str">
+        <f t="shared" si="4"/>
+        <v>DeepSeek-R1</v>
+      </c>
+      <c r="S45" t="str">
+        <f t="shared" si="4"/>
+        <v>DeepSeek-V3-0312</v>
+      </c>
+      <c r="T45" t="str">
+        <f t="shared" si="4"/>
+        <v>Llama-3.1-8b-instruct</v>
+      </c>
+      <c r="U45" t="str">
+        <f t="shared" si="4"/>
+        <v>Qwen-2.5-3B</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" t="str">
+        <f t="shared" ref="A46:C85" si="5">A3</f>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="5"/>
+        <v>Single, implizit, no coordinates</v>
+      </c>
+      <c r="C46" t="str">
+        <f>C3</f>
+        <v>Which component is located above the motor?</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" t="str">
+        <f>H3</f>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I46" t="str">
+        <f>I3</f>
+        <v>Single, implizit, no coordinates</v>
+      </c>
+      <c r="J46" t="str">
+        <f>J3</f>
+        <v>Which component is located above the drilling table?</v>
+      </c>
+      <c r="K46" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" t="s">
+        <v>180</v>
+      </c>
+      <c r="N46" t="s">
+        <v>12</v>
+      </c>
+      <c r="O46" t="str">
+        <f>O3</f>
+        <v>Switch</v>
+      </c>
+      <c r="P46" t="str">
+        <f>P3</f>
+        <v>Single, implizit, no coordinates</v>
+      </c>
+      <c r="Q46" t="str">
+        <f>Q3</f>
+        <v>Which component is located below the top button?</v>
+      </c>
+      <c r="R46" t="s">
+        <v>12</v>
+      </c>
+      <c r="S46" t="s">
+        <v>12</v>
+      </c>
+      <c r="T46" t="s">
+        <v>19</v>
+      </c>
+      <c r="U46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="5"/>
+        <v>Single, implizit, no coordinates</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="5"/>
+        <v>Which component is located left to the motor?</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" ref="H47:J85" si="6">H4</f>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="6"/>
+        <v>Single, implizit, no coordinates</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="6"/>
+        <v>Which component is located left to the bottom lever?</v>
+      </c>
+      <c r="K47" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" t="s">
+        <v>19</v>
+      </c>
+      <c r="N47" t="s">
+        <v>19</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" ref="O47:Q85" si="7">O4</f>
+        <v>Switch</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="7"/>
+        <v>Single, implizit, no coordinates</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="7"/>
+        <v>Which component is located above the power plug?</v>
+      </c>
+      <c r="R47" t="s">
+        <v>12</v>
+      </c>
+      <c r="S47" t="s">
+        <v>12</v>
+      </c>
+      <c r="T47" t="s">
+        <v>12</v>
+      </c>
+      <c r="U47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="5"/>
+        <v>Single, implizit, no coordinates</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="5"/>
+        <v>Where is the left grinding wheel located?</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="6"/>
+        <v>Single, implizit, no coordinates</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="6"/>
+        <v>Where is the wrench hanging?</v>
+      </c>
+      <c r="K48" t="s">
+        <v>12</v>
+      </c>
+      <c r="L48" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" t="s">
+        <v>12</v>
+      </c>
+      <c r="N48" t="s">
+        <v>12</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="7"/>
+        <v>Single, implizit, no coordinates</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="7"/>
+        <v>How many buttons are on the housing?</v>
+      </c>
+      <c r="R48" t="s">
+        <v>12</v>
+      </c>
+      <c r="S48" t="s">
+        <v>12</v>
+      </c>
+      <c r="T48" t="s">
+        <v>19</v>
+      </c>
+      <c r="U48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A49" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="5"/>
+        <v>Single, implizit, no coordinates</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="5"/>
+        <v>If the motor overheats, which parts would be affected?</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>204</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="6"/>
+        <v>Single, implizit, no coordinates</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="6"/>
+        <v>Which components are involved in operating the machine?</v>
+      </c>
+      <c r="K49" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" t="s">
+        <v>181</v>
+      </c>
+      <c r="M49" t="s">
+        <v>181</v>
+      </c>
+      <c r="N49" t="s">
+        <v>12</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="7"/>
+        <v>Single, implizit, no coordinates</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="7"/>
+        <v>The supply of power is not working, what could be the issue?</v>
+      </c>
+      <c r="R49" t="s">
+        <v>12</v>
+      </c>
+      <c r="S49" t="s">
+        <v>12</v>
+      </c>
+      <c r="T49" t="s">
+        <v>190</v>
+      </c>
+      <c r="U49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A50" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="5"/>
+        <v>Single, implizit, with coordinates</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="5"/>
+        <v>Which component is located above the motor?</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="6"/>
+        <v>Single, implizit, with coordinates</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="6"/>
+        <v>Which component is located above the drilling table?</v>
+      </c>
+      <c r="K50" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50" t="s">
+        <v>12</v>
+      </c>
+      <c r="M50" t="s">
+        <v>12</v>
+      </c>
+      <c r="N50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="7"/>
+        <v>Single, implizit, with coordinates</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="7"/>
+        <v>Which component is located below the top button?</v>
+      </c>
+      <c r="R50" t="s">
+        <v>12</v>
+      </c>
+      <c r="S50" t="s">
+        <v>12</v>
+      </c>
+      <c r="T50" t="s">
+        <v>191</v>
+      </c>
+      <c r="U50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A51" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="5"/>
+        <v>Single, implizit, with coordinates</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="5"/>
+        <v>Which component is located left to the motor?</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>168</v>
+      </c>
+      <c r="F51" t="s">
+        <v>138</v>
+      </c>
+      <c r="G51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="6"/>
+        <v>Single, implizit, with coordinates</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="6"/>
+        <v>Which component is located left to the bottom lever?</v>
+      </c>
+      <c r="K51" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" t="s">
+        <v>12</v>
+      </c>
+      <c r="M51" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" t="s">
+        <v>12</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="7"/>
+        <v>Single, implizit, with coordinates</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="7"/>
+        <v>Which component is located above the power plug?</v>
+      </c>
+      <c r="R51" t="s">
+        <v>12</v>
+      </c>
+      <c r="S51" t="s">
+        <v>12</v>
+      </c>
+      <c r="T51" t="s">
+        <v>12</v>
+      </c>
+      <c r="U51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A52" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="5"/>
+        <v>Single, implizit, with coordinates</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="5"/>
+        <v>Where is the left grinding wheel located?</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="6"/>
+        <v>Single, implizit, with coordinates</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="6"/>
+        <v>Where is the wrench hanging?</v>
+      </c>
+      <c r="K52" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52" t="s">
+        <v>12</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="7"/>
+        <v>Single, implizit, with coordinates</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="7"/>
+        <v>How many buttons are on the housing?</v>
+      </c>
+      <c r="R52" t="s">
+        <v>12</v>
+      </c>
+      <c r="S52" t="s">
+        <v>12</v>
+      </c>
+      <c r="T52" t="s">
+        <v>12</v>
+      </c>
+      <c r="U52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A53" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="5"/>
+        <v>Single, implizit, with coordinates</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="5"/>
+        <v>If the motor overheats, which parts would be affected?</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>193</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="6"/>
+        <v>Single, implizit, with coordinates</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="6"/>
+        <v>Which components are involved in operating the machine?</v>
+      </c>
+      <c r="K53" t="s">
+        <v>181</v>
+      </c>
+      <c r="L53" t="s">
+        <v>181</v>
+      </c>
+      <c r="M53" t="s">
+        <v>181</v>
+      </c>
+      <c r="N53" t="s">
+        <v>109</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="7"/>
+        <v>Single, implizit, with coordinates</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="7"/>
+        <v>The supply of power is not working, what could be the issue?</v>
+      </c>
+      <c r="R53" t="s">
+        <v>12</v>
+      </c>
+      <c r="S53" t="s">
+        <v>12</v>
+      </c>
+      <c r="T53" t="s">
+        <v>12</v>
+      </c>
+      <c r="U53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A54" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="5"/>
+        <v>Single, explizit, no coordinates</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="5"/>
+        <v>Which component is located above the motor?</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="6"/>
+        <v>Single, explizit, no coordinates</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="6"/>
+        <v>Which component is located above the drilling table?</v>
+      </c>
+      <c r="K54" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54" t="s">
+        <v>12</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="7"/>
+        <v>Single, explizit, no coordinates</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="7"/>
+        <v>Which component is located below the top button?</v>
+      </c>
+      <c r="R54" t="s">
+        <v>12</v>
+      </c>
+      <c r="S54" t="s">
+        <v>19</v>
+      </c>
+      <c r="T54" t="s">
+        <v>12</v>
+      </c>
+      <c r="U54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A55" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="5"/>
+        <v>Single, explizit, no coordinates</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="5"/>
+        <v>Which component is located left to the motor?</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="6"/>
+        <v>Single, explizit, no coordinates</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="6"/>
+        <v>Which component is located left to the bottom lever?</v>
+      </c>
+      <c r="K55" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" t="s">
+        <v>19</v>
+      </c>
+      <c r="N55" t="s">
+        <v>19</v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="7"/>
+        <v>Single, explizit, no coordinates</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="7"/>
+        <v>Which component is located above the power plug?</v>
+      </c>
+      <c r="R55" t="s">
+        <v>192</v>
+      </c>
+      <c r="S55" t="s">
+        <v>12</v>
+      </c>
+      <c r="T55" t="s">
+        <v>109</v>
+      </c>
+      <c r="U55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A56" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="5"/>
+        <v>Single, explizit, no coordinates</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="5"/>
+        <v>Where is the left grinding wheel located?</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>109</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="6"/>
+        <v>Single, explizit, no coordinates</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="6"/>
+        <v>Where is the wrench hanging?</v>
+      </c>
+      <c r="K56" t="s">
+        <v>12</v>
+      </c>
+      <c r="L56" t="s">
+        <v>19</v>
+      </c>
+      <c r="M56" t="s">
+        <v>19</v>
+      </c>
+      <c r="N56" t="s">
+        <v>12</v>
+      </c>
+      <c r="O56" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P56" t="str">
+        <f t="shared" si="7"/>
+        <v>Single, explizit, no coordinates</v>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" si="7"/>
+        <v>How many buttons are on the housing?</v>
+      </c>
+      <c r="R56" t="s">
+        <v>12</v>
+      </c>
+      <c r="S56" t="s">
+        <v>12</v>
+      </c>
+      <c r="T56" t="s">
+        <v>12</v>
+      </c>
+      <c r="U56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A57" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="5"/>
+        <v>Single, explizit, no coordinates</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="5"/>
+        <v>If the motor overheats, which parts would be affected?</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="6"/>
+        <v>Single, explizit, no coordinates</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="6"/>
+        <v>Which components are involved in operating the machine?</v>
+      </c>
+      <c r="K57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L57" t="s">
+        <v>181</v>
+      </c>
+      <c r="M57" t="s">
+        <v>181</v>
+      </c>
+      <c r="N57" t="s">
+        <v>12</v>
+      </c>
+      <c r="O57" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P57" t="str">
+        <f t="shared" si="7"/>
+        <v>Single, explizit, no coordinates</v>
+      </c>
+      <c r="Q57" t="str">
+        <f t="shared" si="7"/>
+        <v>The supply of power is not working, what could be the issue?</v>
+      </c>
+      <c r="R57" t="s">
+        <v>12</v>
+      </c>
+      <c r="S57" t="s">
+        <v>12</v>
+      </c>
+      <c r="T57" t="s">
+        <v>12</v>
+      </c>
+      <c r="U57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A58" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="5"/>
+        <v>Single, explizit, with coordinates</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="5"/>
+        <v>Which component is located above the motor?</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="6"/>
+        <v>Single, explizit, with coordinates</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="6"/>
+        <v>Which component is located above the drilling table?</v>
+      </c>
+      <c r="K58" t="s">
+        <v>183</v>
+      </c>
+      <c r="L58" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" t="s">
+        <v>182</v>
+      </c>
+      <c r="N58" t="s">
+        <v>12</v>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P58" t="str">
+        <f t="shared" si="7"/>
+        <v>Single, explizit, with coordinates</v>
+      </c>
+      <c r="Q58" t="str">
+        <f t="shared" si="7"/>
+        <v>Which component is located below the top button?</v>
+      </c>
+      <c r="R58" t="s">
+        <v>109</v>
+      </c>
+      <c r="S58" t="s">
+        <v>109</v>
+      </c>
+      <c r="T58" t="s">
+        <v>19</v>
+      </c>
+      <c r="U58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A59" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="5"/>
+        <v>Single, explizit, with coordinates</v>
+      </c>
+      <c r="C59" t="str">
+        <f>C16</f>
+        <v>Which component is located left to the motor?</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="6"/>
+        <v>Single, explizit, with coordinates</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="6"/>
+        <v>Which component is located left to the bottom lever?</v>
+      </c>
+      <c r="K59" t="s">
+        <v>12</v>
+      </c>
+      <c r="L59" t="s">
+        <v>12</v>
+      </c>
+      <c r="M59" t="s">
+        <v>19</v>
+      </c>
+      <c r="N59" t="s">
+        <v>12</v>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P59" t="str">
+        <f t="shared" si="7"/>
+        <v>Single, explizit, with coordinates</v>
+      </c>
+      <c r="Q59" t="str">
+        <f t="shared" si="7"/>
+        <v>Which component is located above the power plug?</v>
+      </c>
+      <c r="R59" t="s">
+        <v>12</v>
+      </c>
+      <c r="S59" t="s">
+        <v>12</v>
+      </c>
+      <c r="T59" t="s">
+        <v>12</v>
+      </c>
+      <c r="U59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A60" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="5"/>
+        <v>Single, explizit, with coordinates</v>
+      </c>
+      <c r="C60" t="str">
+        <f>C17</f>
+        <v>Where is the left grinding wheel located?</v>
+      </c>
+      <c r="D60" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>170</v>
+      </c>
+      <c r="G60" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="6"/>
+        <v>Single, explizit, with coordinates</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="6"/>
+        <v>Where is the wrench hanging?</v>
+      </c>
+      <c r="K60" t="s">
+        <v>12</v>
+      </c>
+      <c r="L60" t="s">
+        <v>12</v>
+      </c>
+      <c r="M60" t="s">
+        <v>12</v>
+      </c>
+      <c r="N60" t="s">
+        <v>12</v>
+      </c>
+      <c r="O60" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P60" t="str">
+        <f t="shared" si="7"/>
+        <v>Single, explizit, with coordinates</v>
+      </c>
+      <c r="Q60" t="str">
+        <f t="shared" si="7"/>
+        <v>How many buttons are on the housing?</v>
+      </c>
+      <c r="R60" t="s">
+        <v>12</v>
+      </c>
+      <c r="S60" t="s">
+        <v>12</v>
+      </c>
+      <c r="T60" t="s">
+        <v>12</v>
+      </c>
+      <c r="U60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A61" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="5"/>
+        <v>Single, explizit, with coordinates</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="5"/>
+        <v>If the motor overheats, which parts would be affected?</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>169</v>
+      </c>
+      <c r="F61" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" t="s">
+        <v>109</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="6"/>
+        <v>Single, explizit, with coordinates</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="6"/>
+        <v>Which components are involved in operating the machine?</v>
+      </c>
+      <c r="K61" t="s">
+        <v>12</v>
+      </c>
+      <c r="L61" t="s">
+        <v>181</v>
+      </c>
+      <c r="M61" t="s">
+        <v>181</v>
+      </c>
+      <c r="N61" t="s">
+        <v>109</v>
+      </c>
+      <c r="O61" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P61" t="str">
+        <f t="shared" si="7"/>
+        <v>Single, explizit, with coordinates</v>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" si="7"/>
+        <v>The supply of power is not working, what could be the issue?</v>
+      </c>
+      <c r="R61" t="s">
+        <v>12</v>
+      </c>
+      <c r="S61" t="s">
+        <v>12</v>
+      </c>
+      <c r="T61" t="s">
+        <v>12</v>
+      </c>
+      <c r="U61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A62" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="5"/>
+        <v>Multi, implizit, no coordinates</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="5"/>
+        <v>Which component is located above the motor?</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="6"/>
+        <v>Multi, implizit, no coordinates</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="6"/>
+        <v>Which component is located above the drilling table?</v>
+      </c>
+      <c r="K62" t="s">
+        <v>12</v>
+      </c>
+      <c r="L62" t="s">
+        <v>12</v>
+      </c>
+      <c r="M62" t="s">
+        <v>182</v>
+      </c>
+      <c r="N62" t="s">
+        <v>19</v>
+      </c>
+      <c r="O62" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P62" t="str">
+        <f t="shared" si="7"/>
+        <v>Multi, implizit, no coordinates</v>
+      </c>
+      <c r="Q62" t="str">
+        <f t="shared" si="7"/>
+        <v>Which component is located below the top button?</v>
+      </c>
+      <c r="R62" t="s">
+        <v>12</v>
+      </c>
+      <c r="S62" t="s">
+        <v>12</v>
+      </c>
+      <c r="T62" t="s">
+        <v>12</v>
+      </c>
+      <c r="U62" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A63" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="5"/>
+        <v>Multi, implizit, no coordinates</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="5"/>
+        <v>Which component is located left to the motor?</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="6"/>
+        <v>Multi, implizit, no coordinates</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="6"/>
+        <v>Which component is located left to the bottom lever?</v>
+      </c>
+      <c r="K63" t="s">
+        <v>12</v>
+      </c>
+      <c r="L63" t="s">
+        <v>12</v>
+      </c>
+      <c r="M63" t="s">
+        <v>12</v>
+      </c>
+      <c r="N63" t="s">
+        <v>19</v>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P63" t="str">
+        <f t="shared" si="7"/>
+        <v>Multi, implizit, no coordinates</v>
+      </c>
+      <c r="Q63" t="str">
+        <f t="shared" si="7"/>
+        <v>Which component is located above the power plug?</v>
+      </c>
+      <c r="R63" t="s">
+        <v>12</v>
+      </c>
+      <c r="S63" t="s">
+        <v>12</v>
+      </c>
+      <c r="T63" t="s">
+        <v>12</v>
+      </c>
+      <c r="U63" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A64" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="5"/>
+        <v>Multi, implizit, no coordinates</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="5"/>
+        <v>Where is the left grinding wheel located?</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>109</v>
+      </c>
+      <c r="G64" t="s">
+        <v>195</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="6"/>
+        <v>Multi, implizit, no coordinates</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="6"/>
+        <v>Where is the wrench hanging?</v>
+      </c>
+      <c r="K64" t="s">
+        <v>12</v>
+      </c>
+      <c r="L64" t="s">
+        <v>12</v>
+      </c>
+      <c r="M64" t="s">
+        <v>12</v>
+      </c>
+      <c r="N64" t="s">
+        <v>19</v>
+      </c>
+      <c r="O64" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P64" t="str">
+        <f t="shared" si="7"/>
+        <v>Multi, implizit, no coordinates</v>
+      </c>
+      <c r="Q64" t="str">
+        <f t="shared" si="7"/>
+        <v>How many buttons are on the housing?</v>
+      </c>
+      <c r="R64" t="s">
+        <v>12</v>
+      </c>
+      <c r="S64" t="s">
+        <v>12</v>
+      </c>
+      <c r="T64" t="s">
+        <v>12</v>
+      </c>
+      <c r="U64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A65" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="5"/>
+        <v>Multi, implizit, no coordinates</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="5"/>
+        <v>If the motor overheats, which parts would be affected?</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>171</v>
+      </c>
+      <c r="G65" t="s">
+        <v>196</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="6"/>
+        <v>Multi, implizit, no coordinates</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="6"/>
+        <v>Which components are involved in operating the machine?</v>
+      </c>
+      <c r="K65" t="s">
+        <v>12</v>
+      </c>
+      <c r="L65" t="s">
+        <v>181</v>
+      </c>
+      <c r="M65" t="s">
+        <v>19</v>
+      </c>
+      <c r="N65" t="s">
+        <v>203</v>
+      </c>
+      <c r="O65" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P65" t="str">
+        <f t="shared" si="7"/>
+        <v>Multi, implizit, no coordinates</v>
+      </c>
+      <c r="Q65" t="str">
+        <f t="shared" si="7"/>
+        <v>The supply of power is not working, what could be the issue?</v>
+      </c>
+      <c r="R65" t="s">
+        <v>12</v>
+      </c>
+      <c r="S65" t="s">
+        <v>12</v>
+      </c>
+      <c r="T65" t="s">
+        <v>12</v>
+      </c>
+      <c r="U65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A66" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="5"/>
+        <v>Multi, implizit, with coordinates</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="5"/>
+        <v>Which component is located above the motor?</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" t="s">
+        <v>197</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="6"/>
+        <v>Multi, implizit, with coordinates</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="6"/>
+        <v>Which component is located above the drilling table?</v>
+      </c>
+      <c r="K66" t="s">
+        <v>12</v>
+      </c>
+      <c r="L66" t="s">
+        <v>12</v>
+      </c>
+      <c r="M66" t="s">
+        <v>182</v>
+      </c>
+      <c r="N66" t="s">
+        <v>19</v>
+      </c>
+      <c r="O66" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P66" t="str">
+        <f t="shared" si="7"/>
+        <v>Multi, implizit, with coordinates</v>
+      </c>
+      <c r="Q66" t="str">
+        <f t="shared" si="7"/>
+        <v>Which component is located below the top button?</v>
+      </c>
+      <c r="R66" t="s">
+        <v>12</v>
+      </c>
+      <c r="S66" t="s">
+        <v>12</v>
+      </c>
+      <c r="T66" t="s">
+        <v>12</v>
+      </c>
+      <c r="U66" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A67" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="5"/>
+        <v>Multi, implizit, with coordinates</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="5"/>
+        <v>Which component is located left to the motor?</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" t="s">
+        <v>172</v>
+      </c>
+      <c r="G67" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="6"/>
+        <v>Multi, implizit, with coordinates</v>
+      </c>
+      <c r="J67" t="str">
+        <f>J24</f>
+        <v>Which component is located left to the bottom lever?</v>
+      </c>
+      <c r="K67" t="s">
+        <v>12</v>
+      </c>
+      <c r="L67" t="s">
+        <v>12</v>
+      </c>
+      <c r="M67" t="s">
+        <v>19</v>
+      </c>
+      <c r="N67" t="s">
+        <v>19</v>
+      </c>
+      <c r="O67" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P67" t="str">
+        <f t="shared" si="7"/>
+        <v>Multi, implizit, with coordinates</v>
+      </c>
+      <c r="Q67" t="str">
+        <f t="shared" si="7"/>
+        <v>Which component is located above the power plug?</v>
+      </c>
+      <c r="R67" t="s">
+        <v>12</v>
+      </c>
+      <c r="S67" t="s">
+        <v>12</v>
+      </c>
+      <c r="T67" t="s">
+        <v>12</v>
+      </c>
+      <c r="U67" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A68" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="5"/>
+        <v>Multi, implizit, with coordinates</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="5"/>
+        <v>Where is the left grinding wheel located?</v>
+      </c>
+      <c r="D68" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>173</v>
+      </c>
+      <c r="G68" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="6"/>
+        <v>Multi, implizit, with coordinates</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="6"/>
+        <v>Where is the wrench hanging?</v>
+      </c>
+      <c r="K68" t="s">
+        <v>12</v>
+      </c>
+      <c r="L68" t="s">
+        <v>12</v>
+      </c>
+      <c r="M68" t="s">
+        <v>184</v>
+      </c>
+      <c r="N68" t="s">
+        <v>19</v>
+      </c>
+      <c r="O68" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P68" t="str">
+        <f t="shared" si="7"/>
+        <v>Multi, implizit, with coordinates</v>
+      </c>
+      <c r="Q68" t="str">
+        <f t="shared" si="7"/>
+        <v>How many buttons are on the housing?</v>
+      </c>
+      <c r="R68" t="s">
+        <v>12</v>
+      </c>
+      <c r="S68" t="s">
+        <v>12</v>
+      </c>
+      <c r="T68" t="s">
+        <v>12</v>
+      </c>
+      <c r="U68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A69" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="5"/>
+        <v>Multi, implizit, with coordinates</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="5"/>
+        <v>If the motor overheats, which parts would be affected?</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" t="s">
+        <v>174</v>
+      </c>
+      <c r="F69" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" t="s">
+        <v>198</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="6"/>
+        <v>Multi, implizit, with coordinates</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="6"/>
+        <v>Which components are involved in operating the machine?</v>
+      </c>
+      <c r="K69" t="s">
+        <v>12</v>
+      </c>
+      <c r="L69" t="s">
+        <v>181</v>
+      </c>
+      <c r="M69" t="s">
+        <v>19</v>
+      </c>
+      <c r="N69" t="s">
+        <v>203</v>
+      </c>
+      <c r="O69" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P69" t="str">
+        <f t="shared" si="7"/>
+        <v>Multi, implizit, with coordinates</v>
+      </c>
+      <c r="Q69" t="str">
+        <f t="shared" si="7"/>
+        <v>The supply of power is not working, what could be the issue?</v>
+      </c>
+      <c r="R69" t="s">
+        <v>12</v>
+      </c>
+      <c r="S69" t="s">
+        <v>12</v>
+      </c>
+      <c r="T69" t="s">
+        <v>12</v>
+      </c>
+      <c r="U69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A70" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="5"/>
+        <v>Multi, explizit, no coordinates</v>
+      </c>
+      <c r="C70" t="str">
+        <f>C27</f>
+        <v>Which component is located above the motor?</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>202</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="6"/>
+        <v>Multi, explizit, no coordinates</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="6"/>
+        <v>Which component is located above the drilling table?</v>
+      </c>
+      <c r="K70" t="s">
+        <v>12</v>
+      </c>
+      <c r="L70" t="s">
+        <v>12</v>
+      </c>
+      <c r="M70" t="s">
+        <v>19</v>
+      </c>
+      <c r="N70" t="s">
+        <v>19</v>
+      </c>
+      <c r="O70" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P70" t="str">
+        <f t="shared" si="7"/>
+        <v>Multi, explizit, no coordinates</v>
+      </c>
+      <c r="Q70" t="str">
+        <f t="shared" si="7"/>
+        <v>Which component is located below the top button?</v>
+      </c>
+      <c r="R70" t="s">
+        <v>12</v>
+      </c>
+      <c r="S70" t="s">
+        <v>12</v>
+      </c>
+      <c r="T70" t="s">
+        <v>19</v>
+      </c>
+      <c r="U70" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A71" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="5"/>
+        <v>Multi, explizit, no coordinates</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="5"/>
+        <v>Which component is located left to the motor?</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>172</v>
+      </c>
+      <c r="G71" t="s">
+        <v>199</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="6"/>
+        <v>Multi, explizit, no coordinates</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="6"/>
+        <v>Which component is located left to the bottom lever?</v>
+      </c>
+      <c r="K71" t="s">
+        <v>12</v>
+      </c>
+      <c r="L71" t="s">
+        <v>12</v>
+      </c>
+      <c r="M71" t="s">
+        <v>56</v>
+      </c>
+      <c r="N71" t="s">
+        <v>19</v>
+      </c>
+      <c r="O71" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P71" t="str">
+        <f t="shared" si="7"/>
+        <v>Multi, explizit, no coordinates</v>
+      </c>
+      <c r="Q71" t="str">
+        <f t="shared" si="7"/>
+        <v>Which component is located above the power plug?</v>
+      </c>
+      <c r="R71" t="s">
+        <v>12</v>
+      </c>
+      <c r="S71" t="s">
+        <v>12</v>
+      </c>
+      <c r="T71" t="s">
+        <v>12</v>
+      </c>
+      <c r="U71" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A72" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="5"/>
+        <v>Multi, explizit, no coordinates</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="5"/>
+        <v>Where is the left grinding wheel located?</v>
+      </c>
+      <c r="D72" t="s">
+        <v>125</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
+        <v>175</v>
+      </c>
+      <c r="G72" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="6"/>
+        <v>Multi, explizit, no coordinates</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="6"/>
+        <v>Where is the wrench hanging?</v>
+      </c>
+      <c r="K72" t="s">
+        <v>12</v>
+      </c>
+      <c r="L72" t="s">
+        <v>12</v>
+      </c>
+      <c r="M72" t="s">
+        <v>19</v>
+      </c>
+      <c r="N72" t="s">
+        <v>22</v>
+      </c>
+      <c r="O72" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P72" t="str">
+        <f t="shared" si="7"/>
+        <v>Multi, explizit, no coordinates</v>
+      </c>
+      <c r="Q72" t="str">
+        <f t="shared" si="7"/>
+        <v>How many buttons are on the housing?</v>
+      </c>
+      <c r="R72" t="s">
+        <v>12</v>
+      </c>
+      <c r="S72" t="s">
+        <v>12</v>
+      </c>
+      <c r="T72" t="s">
+        <v>12</v>
+      </c>
+      <c r="U72" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A73" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="5"/>
+        <v>Multi, explizit, no coordinates</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="5"/>
+        <v>If the motor overheats, which parts would be affected?</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" t="s">
+        <v>200</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="6"/>
+        <v>Multi, explizit, no coordinates</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="6"/>
+        <v>Which components are involved in operating the machine?</v>
+      </c>
+      <c r="K73" t="s">
+        <v>12</v>
+      </c>
+      <c r="L73" t="s">
+        <v>181</v>
+      </c>
+      <c r="M73" t="s">
+        <v>185</v>
+      </c>
+      <c r="N73" t="s">
+        <v>203</v>
+      </c>
+      <c r="O73" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P73" t="str">
+        <f t="shared" si="7"/>
+        <v>Multi, explizit, no coordinates</v>
+      </c>
+      <c r="Q73" t="str">
+        <f t="shared" si="7"/>
+        <v>The supply of power is not working, what could be the issue?</v>
+      </c>
+      <c r="R73" t="s">
+        <v>12</v>
+      </c>
+      <c r="S73" t="s">
+        <v>12</v>
+      </c>
+      <c r="T73" t="s">
+        <v>12</v>
+      </c>
+      <c r="U73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A74" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="5"/>
+        <v>Multi, explizit, with coordinates</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="5"/>
+        <v>Which component is located above the motor?</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" t="s">
+        <v>176</v>
+      </c>
+      <c r="G74" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="6"/>
+        <v>Multi, explizit, with coordinates</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="6"/>
+        <v>Which component is located above the drilling table?</v>
+      </c>
+      <c r="K74" t="s">
+        <v>12</v>
+      </c>
+      <c r="L74" t="s">
+        <v>12</v>
+      </c>
+      <c r="M74" t="s">
+        <v>182</v>
+      </c>
+      <c r="N74" t="s">
+        <v>205</v>
+      </c>
+      <c r="O74" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P74" t="str">
+        <f t="shared" si="7"/>
+        <v>Multi, explizit, with coordinates</v>
+      </c>
+      <c r="Q74" t="str">
+        <f t="shared" si="7"/>
+        <v>Which component is located below the top button?</v>
+      </c>
+      <c r="R74" t="s">
+        <v>12</v>
+      </c>
+      <c r="S74" t="s">
+        <v>12</v>
+      </c>
+      <c r="T74" t="s">
+        <v>109</v>
+      </c>
+      <c r="U74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A75" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="5"/>
+        <v>Multi, explizit, with coordinates</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="5"/>
+        <v>Which component is located left to the motor?</v>
+      </c>
+      <c r="D75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="6"/>
+        <v>Multi, explizit, with coordinates</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="6"/>
+        <v>Which component is located left to the bottom lever?</v>
+      </c>
+      <c r="K75" t="s">
+        <v>12</v>
+      </c>
+      <c r="L75" t="s">
+        <v>12</v>
+      </c>
+      <c r="M75" t="s">
+        <v>19</v>
+      </c>
+      <c r="N75" t="s">
+        <v>205</v>
+      </c>
+      <c r="O75" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P75" t="str">
+        <f t="shared" si="7"/>
+        <v>Multi, explizit, with coordinates</v>
+      </c>
+      <c r="Q75" t="str">
+        <f t="shared" si="7"/>
+        <v>Which component is located above the power plug?</v>
+      </c>
+      <c r="R75" t="s">
+        <v>12</v>
+      </c>
+      <c r="S75" t="s">
+        <v>12</v>
+      </c>
+      <c r="T75" t="s">
+        <v>12</v>
+      </c>
+      <c r="U75" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A76" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="5"/>
+        <v>Multi, explizit, with coordinates</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="5"/>
+        <v>Where is the left grinding wheel located?</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="6"/>
+        <v>Multi, explizit, with coordinates</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="6"/>
+        <v>Where is the wrench hanging?</v>
+      </c>
+      <c r="K76" t="s">
+        <v>12</v>
+      </c>
+      <c r="L76" t="s">
+        <v>12</v>
+      </c>
+      <c r="M76" t="s">
+        <v>19</v>
+      </c>
+      <c r="N76" t="s">
+        <v>205</v>
+      </c>
+      <c r="O76" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P76" t="str">
+        <f t="shared" si="7"/>
+        <v>Multi, explizit, with coordinates</v>
+      </c>
+      <c r="Q76" t="str">
+        <f t="shared" si="7"/>
+        <v>How many buttons are on the housing?</v>
+      </c>
+      <c r="R76" t="s">
+        <v>12</v>
+      </c>
+      <c r="S76" t="s">
+        <v>12</v>
+      </c>
+      <c r="T76" t="s">
+        <v>19</v>
+      </c>
+      <c r="U76" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A77" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="5"/>
+        <v>Multi, explizit, with coordinates</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="5"/>
+        <v>If the motor overheats, which parts would be affected?</v>
+      </c>
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s">
+        <v>177</v>
+      </c>
+      <c r="G77" t="s">
+        <v>200</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="6"/>
+        <v>Multi, explizit, with coordinates</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="6"/>
+        <v>Which components are involved in operating the machine?</v>
+      </c>
+      <c r="K77" t="s">
+        <v>12</v>
+      </c>
+      <c r="L77" t="s">
+        <v>181</v>
+      </c>
+      <c r="M77" t="s">
+        <v>181</v>
+      </c>
+      <c r="N77" t="s">
+        <v>19</v>
+      </c>
+      <c r="O77" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P77" t="str">
+        <f t="shared" si="7"/>
+        <v>Multi, explizit, with coordinates</v>
+      </c>
+      <c r="Q77" t="str">
+        <f t="shared" si="7"/>
+        <v>The supply of power is not working, what could be the issue?</v>
+      </c>
+      <c r="R77" t="s">
+        <v>12</v>
+      </c>
+      <c r="S77" t="s">
+        <v>12</v>
+      </c>
+      <c r="T77" t="s">
+        <v>12</v>
+      </c>
+      <c r="U77" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A78" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="5"/>
+        <v>Summary, implizit</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="5"/>
+        <v>Which component is located above the motor?</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="6"/>
+        <v>Summary, implizit</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="6"/>
+        <v>Which component is located above the drilling table?</v>
+      </c>
+      <c r="K78" t="s">
+        <v>12</v>
+      </c>
+      <c r="L78" t="s">
+        <v>12</v>
+      </c>
+      <c r="M78" t="s">
+        <v>19</v>
+      </c>
+      <c r="N78" t="s">
+        <v>12</v>
+      </c>
+      <c r="O78" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P78" t="str">
+        <f t="shared" si="7"/>
+        <v>Summary, implizit</v>
+      </c>
+      <c r="Q78" t="str">
+        <f t="shared" si="7"/>
+        <v>Which component is located below the top button?</v>
+      </c>
+      <c r="R78" t="s">
+        <v>12</v>
+      </c>
+      <c r="S78" t="s">
+        <v>12</v>
+      </c>
+      <c r="T78" t="s">
+        <v>109</v>
+      </c>
+      <c r="U78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A79" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="5"/>
+        <v>Summary, implizit</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="5"/>
+        <v>Which component is located left to the motor?</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="6"/>
+        <v>Summary, implizit</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="6"/>
+        <v>Which component is located left to the bottom lever?</v>
+      </c>
+      <c r="K79" t="s">
+        <v>12</v>
+      </c>
+      <c r="L79" t="s">
+        <v>12</v>
+      </c>
+      <c r="M79" t="s">
+        <v>19</v>
+      </c>
+      <c r="N79" t="s">
+        <v>12</v>
+      </c>
+      <c r="O79" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P79" t="str">
+        <f t="shared" si="7"/>
+        <v>Summary, implizit</v>
+      </c>
+      <c r="Q79" t="str">
+        <f t="shared" si="7"/>
+        <v>Which component is located above the power plug?</v>
+      </c>
+      <c r="R79" t="s">
+        <v>12</v>
+      </c>
+      <c r="S79" t="s">
+        <v>12</v>
+      </c>
+      <c r="T79" t="s">
+        <v>12</v>
+      </c>
+      <c r="U79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A80" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="5"/>
+        <v>Summary, implizit</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="5"/>
+        <v>Where is the left grinding wheel located?</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="6"/>
+        <v>Summary, implizit</v>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" si="6"/>
+        <v>Where is the wrench hanging?</v>
+      </c>
+      <c r="K80" t="s">
+        <v>12</v>
+      </c>
+      <c r="L80" t="s">
+        <v>186</v>
+      </c>
+      <c r="M80" t="s">
+        <v>187</v>
+      </c>
+      <c r="N80" t="s">
+        <v>109</v>
+      </c>
+      <c r="O80" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P80" t="str">
+        <f t="shared" si="7"/>
+        <v>Summary, implizit</v>
+      </c>
+      <c r="Q80" t="str">
+        <f t="shared" si="7"/>
+        <v>How many buttons are on the housing?</v>
+      </c>
+      <c r="R80" t="s">
+        <v>12</v>
+      </c>
+      <c r="S80" t="s">
+        <v>12</v>
+      </c>
+      <c r="T80" t="s">
+        <v>12</v>
+      </c>
+      <c r="U80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A81" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="5"/>
+        <v>Summary, implizit</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="5"/>
+        <v>If the motor overheats, which parts would be affected?</v>
+      </c>
+      <c r="D81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" t="s">
+        <v>109</v>
+      </c>
+      <c r="G81" t="s">
+        <v>109</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="6"/>
+        <v>Summary, implizit</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" si="6"/>
+        <v>Which components are involved in operating the machine?</v>
+      </c>
+      <c r="K81" t="s">
+        <v>12</v>
+      </c>
+      <c r="L81" t="s">
+        <v>181</v>
+      </c>
+      <c r="M81" t="s">
+        <v>188</v>
+      </c>
+      <c r="N81" t="s">
+        <v>206</v>
+      </c>
+      <c r="O81" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P81" t="str">
+        <f t="shared" si="7"/>
+        <v>Summary, implizit</v>
+      </c>
+      <c r="Q81" t="str">
+        <f t="shared" si="7"/>
+        <v>The supply of power is not working, what could be the issue?</v>
+      </c>
+      <c r="R81" t="s">
+        <v>12</v>
+      </c>
+      <c r="S81" t="s">
+        <v>12</v>
+      </c>
+      <c r="T81" t="s">
+        <v>12</v>
+      </c>
+      <c r="U81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A82" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="5"/>
+        <v>Summary, explizit</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="5"/>
+        <v>Which component is located above the motor?</v>
+      </c>
+      <c r="D82" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="6"/>
+        <v>Summary, explizit</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="6"/>
+        <v>Which component is located above the drilling table?</v>
+      </c>
+      <c r="K82" t="s">
+        <v>12</v>
+      </c>
+      <c r="L82" t="s">
+        <v>12</v>
+      </c>
+      <c r="M82" t="s">
+        <v>189</v>
+      </c>
+      <c r="N82" t="s">
+        <v>207</v>
+      </c>
+      <c r="O82" t="str">
+        <f>O39</f>
+        <v>Switch</v>
+      </c>
+      <c r="P82" t="str">
+        <f t="shared" ref="P82:Q85" si="8">P39</f>
+        <v>Summary, explizit</v>
+      </c>
+      <c r="Q82" t="str">
+        <f t="shared" si="8"/>
+        <v>Which component is located below the top button?</v>
+      </c>
+      <c r="R82" t="s">
+        <v>12</v>
+      </c>
+      <c r="S82" t="s">
+        <v>12</v>
+      </c>
+      <c r="T82" t="s">
+        <v>191</v>
+      </c>
+      <c r="U82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A83" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="5"/>
+        <v>Summary, explizit</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="5"/>
+        <v>Which component is located left to the motor?</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="6"/>
+        <v>Summary, explizit</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" si="6"/>
+        <v>Which component is located left to the bottom lever?</v>
+      </c>
+      <c r="K83" t="s">
+        <v>12</v>
+      </c>
+      <c r="L83" t="s">
+        <v>12</v>
+      </c>
+      <c r="M83" t="s">
+        <v>19</v>
+      </c>
+      <c r="N83" t="s">
+        <v>12</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="8"/>
+        <v>Summary, explizit</v>
+      </c>
+      <c r="Q83" t="str">
+        <f t="shared" si="8"/>
+        <v>Which component is located above the power plug?</v>
+      </c>
+      <c r="R83" t="s">
+        <v>12</v>
+      </c>
+      <c r="S83" t="s">
+        <v>12</v>
+      </c>
+      <c r="T83" t="s">
+        <v>109</v>
+      </c>
+      <c r="U83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A84" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="5"/>
+        <v>Summary, explizit</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="5"/>
+        <v>Where is the left grinding wheel located?</v>
+      </c>
+      <c r="D84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" t="s">
+        <v>178</v>
+      </c>
+      <c r="F84" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>201</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="6"/>
+        <v>Summary, explizit</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="6"/>
+        <v>Where is the wrench hanging?</v>
+      </c>
+      <c r="K84" t="s">
+        <v>12</v>
+      </c>
+      <c r="L84" t="s">
+        <v>12</v>
+      </c>
+      <c r="M84" t="s">
+        <v>19</v>
+      </c>
+      <c r="N84" t="s">
+        <v>19</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="8"/>
+        <v>Summary, explizit</v>
+      </c>
+      <c r="Q84" t="str">
+        <f t="shared" si="8"/>
+        <v>How many buttons are on the housing?</v>
+      </c>
+      <c r="R84" t="s">
+        <v>12</v>
+      </c>
+      <c r="S84" t="s">
+        <v>12</v>
+      </c>
+      <c r="T84" t="s">
+        <v>12</v>
+      </c>
+      <c r="U84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A85" t="str">
+        <f t="shared" si="5"/>
+        <v>Grinding Machine</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="5"/>
+        <v>Summary, explizit</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="5"/>
+        <v>If the motor overheats, which parts would be affected?</v>
+      </c>
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" t="s">
+        <v>179</v>
+      </c>
+      <c r="F85" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" t="s">
+        <v>109</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="6"/>
+        <v>Drilling Machine</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="6"/>
+        <v>Summary, explizit</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="6"/>
+        <v>Which components are involved in operating the machine?</v>
+      </c>
+      <c r="K85" t="s">
+        <v>12</v>
+      </c>
+      <c r="L85" t="s">
+        <v>12</v>
+      </c>
+      <c r="M85" t="s">
+        <v>12</v>
+      </c>
+      <c r="N85" t="s">
+        <v>19</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="7"/>
+        <v>Switch</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="8"/>
+        <v>Summary, explizit</v>
+      </c>
+      <c r="Q85" t="str">
+        <f t="shared" si="8"/>
+        <v>The supply of power is not working, what could be the issue?</v>
+      </c>
+      <c r="R85" t="s">
+        <v>12</v>
+      </c>
+      <c r="S85" t="s">
+        <v>12</v>
+      </c>
+      <c r="T85" t="s">
+        <v>12</v>
+      </c>
+      <c r="U85" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Evaluation/Ergebnisse.xlsx
+++ b/Evaluation/Ergebnisse.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morge\UniProgrammieren\Bachelorarbeit\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050B15E6-58D9-4D65-AA97-5AEAFA893A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16797969-120C-4925-9B99-67EAFD0554C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" activeTab="1" xr2:uid="{52387500-C1F9-47D4-8B59-BEB6484736D5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{52387500-C1F9-47D4-8B59-BEB6484736D5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="233">
   <si>
     <t>Llama-3.1-8b-instruct</t>
   </si>
@@ -237,9 +238,6 @@
     <t>R,V, sogar gut erklärt</t>
   </si>
   <si>
-    <t>Fast richtig, ein Lever zu viel</t>
-  </si>
-  <si>
     <t>Erkennt drilling table nicht, mit .owl Datei richtige Antwort</t>
   </si>
   <si>
@@ -255,9 +253,6 @@
     <t>R,V, mit .owl sogar perfekt gelöst (Cover entdeckt)</t>
   </si>
   <si>
-    <t>R,V, aber nur ein Wort</t>
-  </si>
-  <si>
     <t>R,V, aber erst gesagt es gibt keine Information</t>
   </si>
   <si>
@@ -267,9 +262,6 @@
     <t>Falsch, aber mit .owl richtig</t>
   </si>
   <si>
-    <t>Fast richtig, nur ein Wort (above) fehlt</t>
-  </si>
-  <si>
     <t>R,V, gut begründet</t>
   </si>
   <si>
@@ -282,27 +274,15 @@
     <t>R,V, aber über falsche Schlüsse</t>
   </si>
   <si>
-    <t>Falsche Antwort (alle genannt)</t>
-  </si>
-  <si>
     <t>R, aber Lever 2 fehlt</t>
   </si>
   <si>
-    <t>R, aber statt cover eigentlich drilling head gesucht</t>
-  </si>
-  <si>
     <t>keine Infos zu drilling table, mit .owl richtig aber nur eine cam</t>
   </si>
   <si>
     <t>Halbwahr</t>
   </si>
   <si>
-    <t>R,V, aber nur eine Camera berücksichtigt</t>
-  </si>
-  <si>
-    <t>Lever2 doppelt genannt, sonst gut</t>
-  </si>
-  <si>
     <t>R,V, aber zusammenhang zwischen den gleichen Levers nicht erkannt</t>
   </si>
   <si>
@@ -315,12 +295,6 @@
     <t>einfach alle genannt, falsch</t>
   </si>
   <si>
-    <t>Ganz falsch, Frage nicht verstanden</t>
-  </si>
-  <si>
-    <t>Tweaking head, fast aber doch weit entfernt</t>
-  </si>
-  <si>
     <t>R, unvollständig, Zusammenhang der Cams nicht verstanden</t>
   </si>
   <si>
@@ -339,9 +313,6 @@
     <t>How many buttons are on the housing?</t>
   </si>
   <si>
-    <t>Falsche Antwort (1)</t>
-  </si>
-  <si>
     <t>The supply of power is not working, what could be the issue?</t>
   </si>
   <si>
@@ -354,9 +325,6 @@
     <t>R, aber zu unausgereift</t>
   </si>
   <si>
-    <t>Falsche Antwort, redet von Zügen</t>
-  </si>
-  <si>
     <t>R,V, gut überlegt</t>
   </si>
   <si>
@@ -384,9 +352,6 @@
     <t>R, aber falsche Begründung</t>
   </si>
   <si>
-    <t>Falsch, versteht mehrere Cams nicht + nimmt nur erstes trippel</t>
-  </si>
-  <si>
     <t>R, unvollständig, versteht cams nicht</t>
   </si>
   <si>
@@ -399,18 +364,9 @@
     <t>Frage falsch vertanden</t>
   </si>
   <si>
-    <t>R,V, explizit perfekt verstanden</t>
-  </si>
-  <si>
     <t>Falsche Antwort, explizit und cams nicht verstanden</t>
   </si>
   <si>
-    <t>Falsch, zählt nur tripel auf</t>
-  </si>
-  <si>
-    <t>R, gute Begründung aber falscher Anfang</t>
-  </si>
-  <si>
     <t>R,V, aber versteht multicam nicht</t>
   </si>
   <si>
@@ -441,27 +397,15 @@
     <t>R, Grinding wheel 2 vergessen</t>
   </si>
   <si>
-    <t>R, unvollstädnig</t>
-  </si>
-  <si>
     <t>R,V (gibt halt alles aus, weil alles above ist)</t>
   </si>
   <si>
-    <t>R, Cover fehlt</t>
-  </si>
-  <si>
-    <t>R, aber Grund fehlt</t>
-  </si>
-  <si>
     <t>Flasche Antwort</t>
   </si>
   <si>
     <t>R,V, aber sehr viel sinnlose Wörter</t>
   </si>
   <si>
-    <t>R, aber sehr allgemein</t>
-  </si>
-  <si>
     <t>R, aber sinnlose Begründung</t>
   </si>
   <si>
@@ -663,9 +607,6 @@
     <t>R, aber eig alle (gibt nur 2 aus)</t>
   </si>
   <si>
-    <t>R, aber nennt einzeln</t>
-  </si>
-  <si>
     <t>R, aber nennt einzelne cams</t>
   </si>
   <si>
@@ -730,6 +671,72 @@
   </si>
   <si>
     <t>R, paar fehlen</t>
+  </si>
+  <si>
+    <t>Zählung</t>
+  </si>
+  <si>
+    <t>LLM</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>.txt</t>
+  </si>
+  <si>
+    <t>Gesammt</t>
+  </si>
+  <si>
+    <t>.owl</t>
+  </si>
+  <si>
+    <t>Score-System</t>
+  </si>
+  <si>
+    <t>Richtigkeit: +2</t>
+  </si>
+  <si>
+    <t>Vollständigkeit: +2</t>
+  </si>
+  <si>
+    <t>Besonderheiten: -1, 0, +1</t>
+  </si>
+  <si>
+    <t>R,V, explizit gut verstanden</t>
+  </si>
+  <si>
+    <t>mim, imp, nc</t>
+  </si>
+  <si>
+    <t>mim, imp, c</t>
+  </si>
+  <si>
+    <t>mim, exp, nc</t>
+  </si>
+  <si>
+    <t>mim, exp, c</t>
+  </si>
+  <si>
+    <t>sum, exp, nc</t>
+  </si>
+  <si>
+    <t>sum, imp, nc</t>
+  </si>
+  <si>
+    <t>sim,   exp, c</t>
+  </si>
+  <si>
+    <t>sim,   exp, nc</t>
+  </si>
+  <si>
+    <t>sim,   imp, c</t>
+  </si>
+  <si>
+    <t>sim,   imp, nc</t>
   </si>
 </sst>
 </file>
@@ -809,6 +816,6251 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Richtigkeit</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> und Vollständigkeit der LLMs bei Wissensabfragen anhand aus Wissensgraphen erzeugten Tripel-Listen</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle2!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DeepSeek-R1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DeepSeek-V3-0312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Llama-3.1-8b-instruct</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Qwen-2.5-3B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$C$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7789-48CF-BE5C-75D23B29BE8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle2!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DeepSeek-R1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DeepSeek-V3-0312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Llama-3.1-8b-instruct</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Qwen-2.5-3B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$C$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7789-48CF-BE5C-75D23B29BE8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="1333821680"/>
+        <c:axId val="1333819280"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1333821680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1333819280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1333819280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1333821680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Richtigkeit und Vollständigkeit der LLMs bei Wissensabfragen anhand Wissensgraph-Dateien</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle2!$C$5:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DeepSeek-R1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DeepSeek-V3-0312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Llama-3.1-8b-instruct</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Qwen-2.5-3B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$C$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F23A-49EE-B06B-E8477EA62831}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle2!$C$5:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DeepSeek-R1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DeepSeek-V3-0312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Llama-3.1-8b-instruct</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Qwen-2.5-3B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$C$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F23A-49EE-B06B-E8477EA62831}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="1408320736"/>
+        <c:axId val="1408322176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1408320736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1408322176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1408322176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1408320736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Score-Wert</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> des LLM DeepSeek-R1 bei Wissensabfragen anhand unterschiedlicher KG-Architekturen</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSeek-R1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle2!$A$12:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>sim,   imp, nc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sim,   imp, c</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sim,   exp, nc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sim,   exp, c</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mim, imp, nc</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mim, imp, c</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mim, exp, nc</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mim, exp, c</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sum, imp, nc</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sum, exp, nc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$C$12:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97C9-42A7-A6E2-338EC98E2B2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="1400845152"/>
+        <c:axId val="1400845632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1400845152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1400845632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1400845632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1400845152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Score-Wert des LLM </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>DeepSeek-V3-0312</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> bei Wissensabfragen anhand unterschiedlicher KG-Architekturen</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSeek-V3-0312</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle2!$A$12:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>sim,   imp, nc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sim,   imp, c</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sim,   exp, nc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sim,   exp, c</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mim, imp, nc</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mim, imp, c</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mim, exp, nc</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mim, exp, c</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sum, imp, nc</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sum, exp, nc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$D$12:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-134A-4CB0-9B01-F31D3EA0ADBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="1414556048"/>
+        <c:axId val="1414558928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1414556048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1414558928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1414558928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1414556048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Score-Wert des LLM </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Llama-3.1-8b-instruct</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> bei Wissensabfragen anhand unterschiedlicher KG-Architekturen</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Llama-3.1-8b-instruct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle2!$A$12:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>sim,   imp, nc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sim,   imp, c</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sim,   exp, nc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sim,   exp, c</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mim, imp, nc</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mim, imp, c</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mim, exp, nc</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mim, exp, c</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sum, imp, nc</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sum, exp, nc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$E$12:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3C6-491F-A48A-7FCD8C6A9D4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="1407653024"/>
+        <c:axId val="1400822240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1407653024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1400822240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1400822240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1407653024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Score-Wert des LLM </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Qwen-2.5-3B</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> bei Wissensabfragen anhand unterschiedlicher KG-Architekturen</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Qwen-2.5-3B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle2!$A$12:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>sim,   imp, nc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sim,   imp, c</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sim,   exp, nc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sim,   exp, c</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mim, imp, nc</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mim, imp, c</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mim, exp, nc</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mim, exp, c</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sum, imp, nc</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sum, exp, nc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$F$12:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EBE0-46D8-AEEF-43BAA1488413}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="1491287359"/>
+        <c:axId val="1491291679"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1491287359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1491291679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1491291679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1491287359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB56BCE4-3C5B-C1BF-DAB3-754ADCADEC49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>124047</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>733647</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99061</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A80220-8914-B78A-CC3E-310DEA1A1DA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>775290</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>615801</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>2659</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC3F6B66-98B3-AFD6-29F7-E9F54EA1494D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>202557</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>46299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28936</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>40512</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC1DE3B9-11C0-E476-D63C-E2A94FD48EFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>771645</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>27008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>598025</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>21221</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{858E4587-313A-C897-2B85-CC6B1E482652}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>163975</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>27008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>781291</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>21221</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagramm 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC44C1E8-2513-CEAE-4E82-EA032C145432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1127,23 +7379,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96240111-63F1-45A6-89CC-6431EF65BA8D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEE0BEF-A19C-46D9-8325-50102B7F2BC2}">
   <dimension ref="A1:V85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M12" zoomScale="81" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView topLeftCell="T71" zoomScale="98" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82:B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1172,7 +7412,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1186,10 +7426,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -1299,20 +7539,20 @@
         <v>19</v>
       </c>
       <c r="O3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P3" t="str">
         <f>B3</f>
         <v>Single, implizit, no coordinates</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="R3" t="s">
         <v>12</v>
       </c>
       <c r="S3" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="T3" t="s">
         <v>19</v>
@@ -1351,10 +7591,10 @@
         <v>Single, implizit, no coordinates</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
         <v>12</v>
@@ -1366,14 +7606,14 @@
         <v>19</v>
       </c>
       <c r="O4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" ref="P4:P42" si="3">B4</f>
         <v>Single, implizit, no coordinates</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="R4" t="s">
         <v>12</v>
@@ -1433,14 +7673,14 @@
         <v>12</v>
       </c>
       <c r="O5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="3"/>
         <v>Single, implizit, no coordinates</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="R5" t="s">
         <v>12</v>
@@ -1469,7 +7709,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -1491,7 +7731,7 @@
         <v>64</v>
       </c>
       <c r="L6" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M6" t="s">
         <v>65</v>
@@ -1500,23 +7740,23 @@
         <v>12</v>
       </c>
       <c r="O6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="3"/>
         <v>Single, implizit, no coordinates</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="R6" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="S6" t="s">
         <v>12</v>
       </c>
       <c r="T6" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="U6" t="s">
         <v>12</v>
@@ -1558,23 +7798,23 @@
         <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N7" t="s">
         <v>12</v>
       </c>
       <c r="O7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="3"/>
         <v>Single, implizit, with coordinates</v>
       </c>
       <c r="Q7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="R7" t="s">
         <v>12</v>
@@ -1586,7 +7826,7 @@
         <v>12</v>
       </c>
       <c r="U7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -1619,29 +7859,29 @@
         <v>Single, implizit, with coordinates</v>
       </c>
       <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" t="s">
+        <v>136</v>
+      </c>
+      <c r="M8" t="s">
         <v>68</v>
-      </c>
-      <c r="K8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" t="s">
-        <v>155</v>
-      </c>
-      <c r="M8" t="s">
-        <v>69</v>
       </c>
       <c r="N8" t="s">
         <v>19</v>
       </c>
       <c r="O8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="3"/>
         <v>Single, implizit, with coordinates</v>
       </c>
       <c r="Q8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="R8" t="s">
         <v>12</v>
@@ -1670,7 +7910,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
@@ -1698,17 +7938,17 @@
         <v>12</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="3"/>
         <v>Single, implizit, with coordinates</v>
       </c>
       <c r="Q9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="R9" t="s">
         <v>12</v>
@@ -1765,26 +8005,26 @@
         <v>12</v>
       </c>
       <c r="N10" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="O10" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="3"/>
         <v>Single, implizit, with coordinates</v>
       </c>
       <c r="Q10" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="R10" t="s">
         <v>12</v>
       </c>
       <c r="S10" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="T10" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="U10" t="s">
         <v>12</v>
@@ -1829,20 +8069,20 @@
         <v>12</v>
       </c>
       <c r="M11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N11" t="s">
         <v>14</v>
       </c>
       <c r="O11" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P11" t="str">
         <f t="shared" si="3"/>
         <v>Single, explizit, no coordinates</v>
       </c>
       <c r="Q11" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="R11" t="s">
         <v>12</v>
@@ -1851,7 +8091,7 @@
         <v>12</v>
       </c>
       <c r="T11" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="U11" t="s">
         <v>19</v>
@@ -1887,7 +8127,7 @@
         <v>Single, explizit, no coordinates</v>
       </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
@@ -1896,26 +8136,26 @@
         <v>12</v>
       </c>
       <c r="M12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N12" t="s">
         <v>14</v>
       </c>
       <c r="O12" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P12" t="str">
         <f t="shared" si="3"/>
         <v>Single, explizit, no coordinates</v>
       </c>
       <c r="Q12" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="R12" t="s">
         <v>12</v>
       </c>
       <c r="S12" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="T12" t="s">
         <v>19</v>
@@ -1963,20 +8203,20 @@
         <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N13" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="O13" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P13" t="str">
         <f t="shared" si="3"/>
         <v>Single, explizit, no coordinates</v>
       </c>
       <c r="Q13" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="R13" t="s">
         <v>12</v>
@@ -2005,7 +8245,7 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
@@ -2024,32 +8264,32 @@
         <v>63</v>
       </c>
       <c r="K14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="M14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N14" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="O14" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P14" t="str">
         <f t="shared" si="3"/>
         <v>Single, explizit, no coordinates</v>
       </c>
       <c r="Q14" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="R14" t="s">
         <v>12</v>
       </c>
       <c r="S14" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="T14" t="s">
         <v>12</v>
@@ -2094,35 +8334,35 @@
         <v>12</v>
       </c>
       <c r="L15" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N15" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="O15" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P15" t="str">
         <f t="shared" si="3"/>
         <v>Single, explizit, with coordinates</v>
       </c>
       <c r="Q15" t="s">
+        <v>88</v>
+      </c>
+      <c r="R15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" t="s">
+        <v>12</v>
+      </c>
+      <c r="T15" t="s">
         <v>97</v>
       </c>
-      <c r="R15" t="s">
-        <v>12</v>
-      </c>
-      <c r="S15" t="s">
-        <v>12</v>
-      </c>
-      <c r="T15" t="s">
-        <v>108</v>
-      </c>
       <c r="U15" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -2155,29 +8395,29 @@
         <v>Single, explizit, with coordinates</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L16" t="s">
         <v>12</v>
       </c>
       <c r="M16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N16" t="s">
         <v>12</v>
       </c>
       <c r="O16" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P16" t="str">
         <f t="shared" si="3"/>
         <v>Single, explizit, with coordinates</v>
       </c>
       <c r="Q16" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="R16" t="s">
         <v>12</v>
@@ -2186,7 +8426,7 @@
         <v>12</v>
       </c>
       <c r="T16" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="U16" t="s">
         <v>12</v>
@@ -2206,7 +8446,7 @@
         <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
@@ -2234,17 +8474,17 @@
         <v>12</v>
       </c>
       <c r="N17" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="O17" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P17" t="str">
         <f t="shared" si="3"/>
         <v>Single, explizit, with coordinates</v>
       </c>
       <c r="Q17" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="R17" t="s">
         <v>12</v>
@@ -2273,7 +8513,7 @@
         <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="F18" t="s">
         <v>31</v>
@@ -2292,7 +8532,7 @@
         <v>63</v>
       </c>
       <c r="K18" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L18" t="s">
         <v>12</v>
@@ -2301,26 +8541,26 @@
         <v>12</v>
       </c>
       <c r="N18" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="O18" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P18" t="str">
         <f t="shared" si="3"/>
         <v>Single, explizit, with coordinates</v>
       </c>
       <c r="Q18" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="R18" t="s">
         <v>12</v>
       </c>
       <c r="S18" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="T18" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="U18" t="s">
         <v>12</v>
@@ -2365,20 +8605,20 @@
         <v>12</v>
       </c>
       <c r="M19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="N19" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="O19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P19" t="str">
         <f t="shared" si="3"/>
         <v>Multi, implizit, no coordinates</v>
       </c>
       <c r="Q19" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="R19" t="s">
         <v>12</v>
@@ -2387,10 +8627,10 @@
         <v>12</v>
       </c>
       <c r="T19" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="U19" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -2423,10 +8663,10 @@
         <v>Multi, implizit, no coordinates</v>
       </c>
       <c r="J20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L20" t="s">
         <v>12</v>
@@ -2435,17 +8675,17 @@
         <v>19</v>
       </c>
       <c r="N20" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="O20" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P20" t="str">
         <f t="shared" si="3"/>
         <v>Multi, implizit, no coordinates</v>
       </c>
       <c r="Q20" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="R20" t="s">
         <v>12</v>
@@ -2454,10 +8694,10 @@
         <v>12</v>
       </c>
       <c r="T20" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="U20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -2502,17 +8742,17 @@
         <v>12</v>
       </c>
       <c r="N21" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="O21" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P21" t="str">
         <f t="shared" si="3"/>
         <v>Multi, implizit, no coordinates</v>
       </c>
       <c r="Q21" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="R21" t="s">
         <v>12</v>
@@ -2521,10 +8761,10 @@
         <v>12</v>
       </c>
       <c r="T21" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="U21" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -2541,7 +8781,7 @@
         <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="F22" t="s">
         <v>39</v>
@@ -2566,20 +8806,20 @@
         <v>12</v>
       </c>
       <c r="M22" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="N22" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="O22" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P22" t="str">
         <f t="shared" si="3"/>
         <v>Multi, implizit, no coordinates</v>
       </c>
       <c r="Q22" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="R22" t="s">
         <v>12</v>
@@ -2588,10 +8828,10 @@
         <v>12</v>
       </c>
       <c r="T22" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="U22" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -2636,17 +8876,17 @@
         <v>12</v>
       </c>
       <c r="N23" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="O23" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P23" t="str">
         <f t="shared" si="3"/>
         <v>Multi, implizit, with coordinates</v>
       </c>
       <c r="Q23" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="R23" t="s">
         <v>12</v>
@@ -2655,10 +8895,10 @@
         <v>12</v>
       </c>
       <c r="T23" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="U23" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
@@ -2691,7 +8931,7 @@
         <v>Multi, implizit, with coordinates</v>
       </c>
       <c r="J24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K24" t="s">
         <v>12</v>
@@ -2703,17 +8943,17 @@
         <v>19</v>
       </c>
       <c r="N24" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="O24" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P24" t="str">
         <f t="shared" si="3"/>
         <v>Multi, implizit, with coordinates</v>
       </c>
       <c r="Q24" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="R24" t="s">
         <v>12</v>
@@ -2722,7 +8962,7 @@
         <v>12</v>
       </c>
       <c r="T24" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="U24" t="s">
         <v>19</v>
@@ -2767,20 +9007,20 @@
         <v>12</v>
       </c>
       <c r="M25" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N25" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="O25" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P25" t="str">
         <f t="shared" si="3"/>
         <v>Multi, implizit, with coordinates</v>
       </c>
       <c r="Q25" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="R25" t="s">
         <v>12</v>
@@ -2789,7 +9029,7 @@
         <v>12</v>
       </c>
       <c r="T25" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="U25" t="s">
         <v>19</v>
@@ -2828,38 +9068,38 @@
         <v>63</v>
       </c>
       <c r="K26" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L26" t="s">
         <v>12</v>
       </c>
       <c r="M26" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N26" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="O26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P26" t="str">
         <f t="shared" si="3"/>
         <v>Multi, implizit, with coordinates</v>
       </c>
       <c r="Q26" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="R26" t="s">
         <v>12</v>
       </c>
       <c r="S26" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="T26" t="s">
         <v>19</v>
       </c>
       <c r="U26" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
@@ -2904,17 +9144,17 @@
         <v>19</v>
       </c>
       <c r="N27" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="O27" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P27" t="str">
         <f t="shared" si="3"/>
         <v>Multi, explizit, no coordinates</v>
       </c>
       <c r="Q27" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="R27" t="s">
         <v>12</v>
@@ -2923,10 +9163,10 @@
         <v>12</v>
       </c>
       <c r="T27" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="U27" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
@@ -2959,7 +9199,7 @@
         <v>Multi, explizit, no coordinates</v>
       </c>
       <c r="J28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K28" t="s">
         <v>12</v>
@@ -2974,14 +9214,14 @@
         <v>19</v>
       </c>
       <c r="O28" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P28" t="str">
         <f t="shared" si="3"/>
         <v>Multi, explizit, no coordinates</v>
       </c>
       <c r="Q28" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="R28" t="s">
         <v>12</v>
@@ -2993,7 +9233,7 @@
         <v>19</v>
       </c>
       <c r="U28" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
@@ -3038,17 +9278,17 @@
         <v>12</v>
       </c>
       <c r="N29" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="O29" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P29" t="str">
         <f t="shared" si="3"/>
         <v>Multi, explizit, no coordinates</v>
       </c>
       <c r="Q29" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="R29" t="s">
         <v>12</v>
@@ -3057,10 +9297,10 @@
         <v>12</v>
       </c>
       <c r="T29" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="U29" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
@@ -3077,7 +9317,7 @@
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="F30" t="s">
         <v>50</v>
@@ -3105,17 +9345,17 @@
         <v>12</v>
       </c>
       <c r="N30" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="O30" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P30" t="str">
         <f t="shared" si="3"/>
         <v>Multi, explizit, no coordinates</v>
       </c>
       <c r="Q30" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="R30" t="s">
         <v>12</v>
@@ -3172,26 +9412,26 @@
         <v>19</v>
       </c>
       <c r="N31" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="O31" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P31" t="str">
         <f t="shared" si="3"/>
         <v>Multi, explizit, with coordinates</v>
       </c>
       <c r="Q31" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="R31" t="s">
-        <v>120</v>
+        <v>222</v>
       </c>
       <c r="S31" t="s">
         <v>12</v>
       </c>
       <c r="T31" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="U31" t="s">
         <v>19</v>
@@ -3227,7 +9467,7 @@
         <v>Multi, explizit, with coordinates</v>
       </c>
       <c r="J32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K32" t="s">
         <v>12</v>
@@ -3242,23 +9482,23 @@
         <v>19</v>
       </c>
       <c r="O32" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P32" t="str">
         <f t="shared" si="3"/>
         <v>Multi, explizit, with coordinates</v>
       </c>
       <c r="Q32" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="R32" t="s">
-        <v>120</v>
+        <v>222</v>
       </c>
       <c r="S32" t="s">
         <v>12</v>
       </c>
       <c r="T32" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="U32" t="s">
         <v>19</v>
@@ -3309,14 +9549,14 @@
         <v>19</v>
       </c>
       <c r="O33" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P33" t="str">
         <f t="shared" si="3"/>
         <v>Multi, explizit, with coordinates</v>
       </c>
       <c r="Q33" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="R33" t="s">
         <v>12</v>
@@ -3345,7 +9585,7 @@
         <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="F34" t="s">
         <v>59</v>
@@ -3370,20 +9610,20 @@
         <v>12</v>
       </c>
       <c r="M34" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="N34" t="s">
         <v>12</v>
       </c>
       <c r="O34" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P34" t="str">
         <f t="shared" si="3"/>
         <v>Multi, explizit, with coordinates</v>
       </c>
       <c r="Q34" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="R34" t="s">
         <v>12</v>
@@ -3392,7 +9632,7 @@
         <v>12</v>
       </c>
       <c r="T34" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="U34" t="s">
         <v>19</v>
@@ -3403,7 +9643,7 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -3418,7 +9658,7 @@
         <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="H35" t="s">
         <v>60</v>
@@ -3443,14 +9683,14 @@
         <v>12</v>
       </c>
       <c r="O35" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P35" t="str">
         <f t="shared" si="3"/>
         <v>Summary, implizit</v>
       </c>
       <c r="Q35" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="R35" t="s">
         <v>12</v>
@@ -3462,10 +9702,10 @@
         <v>19</v>
       </c>
       <c r="U35" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="V35" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
@@ -3473,7 +9713,7 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
@@ -3498,7 +9738,7 @@
         <v>Summary, implizit</v>
       </c>
       <c r="J36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K36" t="s">
         <v>12</v>
@@ -3510,17 +9750,17 @@
         <v>19</v>
       </c>
       <c r="N36" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="O36" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P36" t="str">
         <f t="shared" si="3"/>
         <v>Summary, implizit</v>
       </c>
       <c r="Q36" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="R36" t="s">
         <v>12</v>
@@ -3529,7 +9769,7 @@
         <v>12</v>
       </c>
       <c r="T36" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="U36" t="s">
         <v>12</v>
@@ -3540,19 +9780,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G37" t="s">
         <v>12</v>
@@ -3577,17 +9817,17 @@
         <v>19</v>
       </c>
       <c r="N37" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="O37" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P37" t="str">
         <f t="shared" si="3"/>
         <v>Summary, implizit</v>
       </c>
       <c r="Q37" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="R37" t="s">
         <v>12</v>
@@ -3607,22 +9847,22 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="F38" t="s">
         <v>27</v>
       </c>
       <c r="G38" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="H38" t="s">
         <v>60</v>
@@ -3644,26 +9884,26 @@
         <v>12</v>
       </c>
       <c r="N38" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="O38" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P38" t="str">
         <f t="shared" si="3"/>
         <v>Summary, implizit</v>
       </c>
       <c r="Q38" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="R38" t="s">
         <v>12</v>
       </c>
       <c r="S38" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="T38" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="U38" t="s">
         <v>12</v>
@@ -3674,7 +9914,7 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -3702,7 +9942,7 @@
         <v>61</v>
       </c>
       <c r="K39" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="L39" t="s">
         <v>12</v>
@@ -3714,26 +9954,26 @@
         <v>12</v>
       </c>
       <c r="O39" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P39" t="str">
         <f t="shared" si="3"/>
         <v>Summary, explizit</v>
       </c>
       <c r="Q39" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="R39" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="S39" t="s">
         <v>12</v>
       </c>
       <c r="T39" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="U39" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
@@ -3741,7 +9981,7 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
@@ -3750,7 +9990,7 @@
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
@@ -3766,7 +10006,7 @@
         <v>Summary, explizit</v>
       </c>
       <c r="J40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K40" t="s">
         <v>12</v>
@@ -3781,23 +10021,23 @@
         <v>19</v>
       </c>
       <c r="O40" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P40" t="str">
         <f t="shared" si="3"/>
         <v>Summary, explizit</v>
       </c>
       <c r="Q40" t="s">
+        <v>89</v>
+      </c>
+      <c r="R40" t="s">
         <v>98</v>
       </c>
-      <c r="R40" t="s">
-        <v>109</v>
-      </c>
       <c r="S40" t="s">
         <v>12</v>
       </c>
       <c r="T40" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="U40" t="s">
         <v>12</v>
@@ -3808,7 +10048,7 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
@@ -3823,7 +10063,7 @@
         <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="H41" t="s">
         <v>60</v>
@@ -3848,14 +10088,14 @@
         <v>19</v>
       </c>
       <c r="O41" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P41" t="str">
         <f t="shared" si="3"/>
         <v>Summary, explizit</v>
       </c>
       <c r="Q41" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="R41" t="s">
         <v>12</v>
@@ -3875,7 +10115,7 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
@@ -3884,10 +10124,10 @@
         <v>27</v>
       </c>
       <c r="E42" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F42" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="G42" t="s">
         <v>22</v>
@@ -3912,26 +10152,26 @@
         <v>12</v>
       </c>
       <c r="N42" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="O42" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P42" t="str">
         <f t="shared" si="3"/>
         <v>Summary, explizit</v>
       </c>
       <c r="Q42" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="R42" t="s">
         <v>12</v>
       </c>
       <c r="S42" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="T42" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="U42" t="s">
         <v>12</v>
@@ -3939,7 +10179,7 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
@@ -4072,7 +10312,7 @@
         <v>12</v>
       </c>
       <c r="M46" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="N46" t="s">
         <v>12</v>
@@ -4196,7 +10436,7 @@
         <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G48" t="s">
         <v>12</v>
@@ -4273,7 +10513,7 @@
         <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="6"/>
@@ -4291,10 +10531,10 @@
         <v>12</v>
       </c>
       <c r="L49" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="M49" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="N49" t="s">
         <v>12</v>
@@ -4318,7 +10558,7 @@
         <v>12</v>
       </c>
       <c r="T49" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="U49" t="s">
         <v>12</v>
@@ -4392,7 +10632,7 @@
         <v>12</v>
       </c>
       <c r="T50" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="U50" t="s">
         <v>12</v>
@@ -4415,10 +10655,10 @@
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="F51" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="G51" t="s">
         <v>19</v>
@@ -4492,7 +10732,7 @@
         <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G52" t="s">
         <v>19</v>
@@ -4569,7 +10809,7 @@
         <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="6"/>
@@ -4584,16 +10824,16 @@
         <v>Which components are involved in operating the machine?</v>
       </c>
       <c r="K53" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="L53" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="M53" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="N53" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="O53" t="str">
         <f t="shared" si="7"/>
@@ -4756,13 +10996,13 @@
         <v>Which component is located above the power plug?</v>
       </c>
       <c r="R55" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="S55" t="s">
         <v>12</v>
       </c>
       <c r="T55" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="U55" t="s">
         <v>19</v>
@@ -4788,7 +11028,7 @@
         <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G56" t="s">
         <v>12</v>
@@ -4883,10 +11123,10 @@
         <v>12</v>
       </c>
       <c r="L57" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="M57" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="N57" t="s">
         <v>12</v>
@@ -4954,13 +11194,13 @@
         <v>Which component is located above the drilling table?</v>
       </c>
       <c r="K58" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="L58" t="s">
         <v>12</v>
       </c>
       <c r="M58" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="N58" t="s">
         <v>12</v>
@@ -4978,10 +11218,10 @@
         <v>Which component is located below the top button?</v>
       </c>
       <c r="R58" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="S58" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="T58" t="s">
         <v>19</v>
@@ -5078,13 +11318,13 @@
         <v>Where is the left grinding wheel located?</v>
       </c>
       <c r="D60" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="G60" t="s">
         <v>19</v>
@@ -5155,13 +11395,13 @@
         <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="F61" t="s">
         <v>19</v>
       </c>
       <c r="G61" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="6"/>
@@ -5179,13 +11419,13 @@
         <v>12</v>
       </c>
       <c r="L61" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="M61" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="N61" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="O61" t="str">
         <f t="shared" si="7"/>
@@ -5256,7 +11496,7 @@
         <v>12</v>
       </c>
       <c r="M62" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="N62" t="s">
         <v>19</v>
@@ -5283,7 +11523,7 @@
         <v>12</v>
       </c>
       <c r="U62" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
@@ -5357,7 +11597,7 @@
         <v>12</v>
       </c>
       <c r="U63" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
@@ -5380,10 +11620,10 @@
         <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G64" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="6"/>
@@ -5454,10 +11694,10 @@
         <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="G65" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="6"/>
@@ -5475,13 +11715,13 @@
         <v>12</v>
       </c>
       <c r="L65" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="M65" t="s">
         <v>19</v>
       </c>
       <c r="N65" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="O65" t="str">
         <f t="shared" si="7"/>
@@ -5531,7 +11771,7 @@
         <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="6"/>
@@ -5552,7 +11792,7 @@
         <v>12</v>
       </c>
       <c r="M66" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="N66" t="s">
         <v>19</v>
@@ -5579,7 +11819,7 @@
         <v>12</v>
       </c>
       <c r="U66" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
@@ -5602,7 +11842,7 @@
         <v>19</v>
       </c>
       <c r="F67" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="G67" t="s">
         <v>19</v>
@@ -5653,7 +11893,7 @@
         <v>12</v>
       </c>
       <c r="U67" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
@@ -5676,7 +11916,7 @@
         <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="G68" t="s">
         <v>19</v>
@@ -5700,7 +11940,7 @@
         <v>12</v>
       </c>
       <c r="M68" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N68" t="s">
         <v>19</v>
@@ -5727,7 +11967,7 @@
         <v>12</v>
       </c>
       <c r="U68" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
@@ -5747,13 +11987,13 @@
         <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="F69" t="s">
         <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="6"/>
@@ -5771,13 +12011,13 @@
         <v>12</v>
       </c>
       <c r="L69" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="M69" t="s">
         <v>19</v>
       </c>
       <c r="N69" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="O69" t="str">
         <f t="shared" si="7"/>
@@ -5801,7 +12041,7 @@
         <v>12</v>
       </c>
       <c r="U69" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
@@ -5827,7 +12067,7 @@
         <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="6"/>
@@ -5875,7 +12115,7 @@
         <v>19</v>
       </c>
       <c r="U70" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
@@ -5898,10 +12138,10 @@
         <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="G71" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="6"/>
@@ -5949,7 +12189,7 @@
         <v>12</v>
       </c>
       <c r="U71" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
@@ -5966,13 +12206,13 @@
         <v>Where is the left grinding wheel located?</v>
       </c>
       <c r="D72" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E72" t="s">
         <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="G72" t="s">
         <v>19</v>
@@ -6023,7 +12263,7 @@
         <v>12</v>
       </c>
       <c r="U72" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.3">
@@ -6049,7 +12289,7 @@
         <v>19</v>
       </c>
       <c r="G73" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="6"/>
@@ -6067,13 +12307,13 @@
         <v>12</v>
       </c>
       <c r="L73" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="M73" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="N73" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="O73" t="str">
         <f t="shared" si="7"/>
@@ -6120,7 +12360,7 @@
         <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="G74" t="s">
         <v>19</v>
@@ -6144,10 +12384,10 @@
         <v>12</v>
       </c>
       <c r="M74" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="N74" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="O74" t="str">
         <f t="shared" si="7"/>
@@ -6168,7 +12408,7 @@
         <v>12</v>
       </c>
       <c r="T74" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="U74" t="s">
         <v>19</v>
@@ -6221,7 +12461,7 @@
         <v>19</v>
       </c>
       <c r="N75" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="O75" t="str">
         <f t="shared" si="7"/>
@@ -6245,7 +12485,7 @@
         <v>12</v>
       </c>
       <c r="U75" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
@@ -6295,7 +12535,7 @@
         <v>19</v>
       </c>
       <c r="N76" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="O76" t="str">
         <f t="shared" si="7"/>
@@ -6319,7 +12559,7 @@
         <v>19</v>
       </c>
       <c r="U76" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
@@ -6342,10 +12582,10 @@
         <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="G77" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="6"/>
@@ -6363,10 +12603,10 @@
         <v>12</v>
       </c>
       <c r="L77" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="M77" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="N77" t="s">
         <v>19</v>
@@ -6393,7 +12633,7 @@
         <v>12</v>
       </c>
       <c r="U77" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
@@ -6464,7 +12704,7 @@
         <v>12</v>
       </c>
       <c r="T78" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="U78" t="s">
         <v>19</v>
@@ -6585,13 +12825,13 @@
         <v>12</v>
       </c>
       <c r="L80" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="M80" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="N80" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="O80" t="str">
         <f t="shared" si="7"/>
@@ -6638,10 +12878,10 @@
         <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G81" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="6"/>
@@ -6659,13 +12899,13 @@
         <v>12</v>
       </c>
       <c r="L81" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="M81" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="N81" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="O81" t="str">
         <f t="shared" si="7"/>
@@ -6736,10 +12976,10 @@
         <v>12</v>
       </c>
       <c r="M82" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="N82" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="O82" t="str">
         <f>O39</f>
@@ -6760,7 +13000,7 @@
         <v>12</v>
       </c>
       <c r="T82" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="U82" t="s">
         <v>19</v>
@@ -6834,7 +13074,7 @@
         <v>12</v>
       </c>
       <c r="T83" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="U83" t="s">
         <v>12</v>
@@ -6857,13 +13097,13 @@
         <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
         <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="6"/>
@@ -6931,13 +13171,13 @@
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
       </c>
       <c r="G85" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="6"/>
@@ -6992,4 +13232,460 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96240111-63F1-45A6-89CC-6431EF65BA8D}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2">
+        <f>SUM(40, 39, 40)</f>
+        <v>119</v>
+      </c>
+      <c r="D2">
+        <f>SUM(40, 40, 40)</f>
+        <v>120</v>
+      </c>
+      <c r="E2">
+        <f>SUM(20, 23, 18)</f>
+        <v>61</v>
+      </c>
+      <c r="F2">
+        <f>SUM(21, 21, 30)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3">
+        <f>SUM(39, 39, 38)</f>
+        <v>116</v>
+      </c>
+      <c r="D3">
+        <f>SUM(39, 40, 39)</f>
+        <v>118</v>
+      </c>
+      <c r="E3">
+        <f>SUM(13, 20, 14)</f>
+        <v>47</v>
+      </c>
+      <c r="F3">
+        <f>SUM(9, 15, 20)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4">
+        <f>SUM(40, 40, 40)</f>
+        <v>120</v>
+      </c>
+      <c r="D4">
+        <f>SUM(40, 40, 40)</f>
+        <v>120</v>
+      </c>
+      <c r="E4">
+        <f>SUM(40, 40, 40)</f>
+        <v>120</v>
+      </c>
+      <c r="F4">
+        <f>SUM(40, 40, 40)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6">
+        <f>SUM(40, 39, 40)</f>
+        <v>119</v>
+      </c>
+      <c r="D6">
+        <f>SUM(35, 30, 39)</f>
+        <v>104</v>
+      </c>
+      <c r="E6">
+        <f>SUM(24, 14, 32)</f>
+        <v>70</v>
+      </c>
+      <c r="F6">
+        <f>SUM(15, 20, 29)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7">
+        <f>SUM(40, 40, 39)</f>
+        <v>119</v>
+      </c>
+      <c r="D7">
+        <f>SUM(34, 38, 38)</f>
+        <v>110</v>
+      </c>
+      <c r="E7">
+        <f>SUM(16, 15, 28)</f>
+        <v>59</v>
+      </c>
+      <c r="F7">
+        <f>SUM(6, 16, 21)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8">
+        <f>SUM(40, 40, 40)</f>
+        <v>120</v>
+      </c>
+      <c r="D8">
+        <f>SUM(40, 40, 40)</f>
+        <v>120</v>
+      </c>
+      <c r="E8">
+        <f>SUM(40, 40, 40)</f>
+        <v>120</v>
+      </c>
+      <c r="F8">
+        <f>SUM(40, 40, 40)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="str">
+        <f>C1</f>
+        <v>DeepSeek-R1</v>
+      </c>
+      <c r="D11" t="str">
+        <f>D1</f>
+        <v>DeepSeek-V3-0312</v>
+      </c>
+      <c r="E11" t="str">
+        <f>E1</f>
+        <v>Llama-3.1-8b-instruct</v>
+      </c>
+      <c r="F11" t="str">
+        <f>F1</f>
+        <v>Qwen-2.5-3B</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12">
+        <f>SUM(48,  48, 1)</f>
+        <v>97</v>
+      </c>
+      <c r="D12">
+        <f>SUM(42, 44, 2)</f>
+        <v>88</v>
+      </c>
+      <c r="E12">
+        <f>SUM(32, 28, 2)</f>
+        <v>62</v>
+      </c>
+      <c r="F12">
+        <f>SUM(32, 32)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13">
+        <f>SUM(46, 48)</f>
+        <v>94</v>
+      </c>
+      <c r="D13">
+        <f>SUM(46, 48, 1)</f>
+        <v>95</v>
+      </c>
+      <c r="E13">
+        <f>SUM(32, 32, 1)</f>
+        <v>65</v>
+      </c>
+      <c r="F13">
+        <f>SUM(34, 26, 3)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14">
+        <f>SUM(46, 46)</f>
+        <v>92</v>
+      </c>
+      <c r="D14">
+        <f>SUM(40, 42, 4)</f>
+        <v>86</v>
+      </c>
+      <c r="E14">
+        <f>SUM(30, 26, -3)</f>
+        <v>53</v>
+      </c>
+      <c r="F14">
+        <f>SUM(32, 32)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15">
+        <f>SUM(48, 44, 1)</f>
+        <v>93</v>
+      </c>
+      <c r="D15">
+        <f>SUM(46, 44, 2)</f>
+        <v>92</v>
+      </c>
+      <c r="E15">
+        <f>SUM(28, 26, -2)</f>
+        <v>52</v>
+      </c>
+      <c r="F15">
+        <f>SUM(36, 30)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16">
+        <f>SUM(46, 46, -3)</f>
+        <v>89</v>
+      </c>
+      <c r="D16">
+        <f>SUM(44, 38, 2)</f>
+        <v>84</v>
+      </c>
+      <c r="E16">
+        <f>SUM(24, 18, -1)</f>
+        <v>41</v>
+      </c>
+      <c r="F16">
+        <f>SUM(26, 4, -2)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17">
+        <f>SUM(48, 48, -2)</f>
+        <v>94</v>
+      </c>
+      <c r="D17">
+        <f>SUM(44, 46)</f>
+        <v>90</v>
+      </c>
+      <c r="E17">
+        <f>SUM(24, 14, -2)</f>
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <f>SUM(14)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18">
+        <f>SUM(48, 48, -1)</f>
+        <v>95</v>
+      </c>
+      <c r="D18">
+        <f>SUM(46, 48, 1)</f>
+        <v>95</v>
+      </c>
+      <c r="E18">
+        <f>SUM(22, 18, -1)</f>
+        <v>39</v>
+      </c>
+      <c r="F18">
+        <f>SUM(24, 8)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19">
+        <f>SUM(48, 48)</f>
+        <v>96</v>
+      </c>
+      <c r="D19">
+        <f>SUM(46, 48, 1)</f>
+        <v>95</v>
+      </c>
+      <c r="E19">
+        <f>SUM(18,10, -2)</f>
+        <v>26</v>
+      </c>
+      <c r="F19">
+        <f>SUM(12, 2)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20">
+        <f>SUM(48, 48, 2)</f>
+        <v>98</v>
+      </c>
+      <c r="D20">
+        <f>SUM(46, 44, 1)</f>
+        <v>91</v>
+      </c>
+      <c r="E20">
+        <f>SUM(22, 18)</f>
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <f>SUM(30, 24)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21">
+        <f>SUM(48, 44, -1)</f>
+        <v>91</v>
+      </c>
+      <c r="D21">
+        <f>SUM(48, 46)</f>
+        <v>94</v>
+      </c>
+      <c r="E21">
+        <f>SUM(30, 18, -2)</f>
+        <v>46</v>
+      </c>
+      <c r="F21">
+        <f>SUM(30, 18)</f>
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F13 D3" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Evaluation/Ergebnisse.xlsx
+++ b/Evaluation/Ergebnisse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morge\UniProgrammieren\Bachelorarbeit\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16797969-120C-4925-9B99-67EAFD0554C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DEE4B2-D86F-438A-9EB8-6C52BD63D91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{52387500-C1F9-47D4-8B59-BEB6484736D5}"/>
   </bookViews>

--- a/Evaluation/Ergebnisse.xlsx
+++ b/Evaluation/Ergebnisse.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morge\UniProgrammieren\Bachelorarbeit\Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morge\Documents\GitHub\Bachelorarbeit\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DEE4B2-D86F-438A-9EB8-6C52BD63D91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{178AFDC3-779F-4678-8389-E7C97702515F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{52387500-C1F9-47D4-8B59-BEB6484736D5}"/>
+    <workbookView xWindow="13650" yWindow="5820" windowWidth="28800" windowHeight="15885" xr2:uid="{52387500-C1F9-47D4-8B59-BEB6484736D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7382,40 +7381,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEE0BEF-A19C-46D9-8325-50102B7F2BC2}">
   <dimension ref="A1:V85"/>
   <sheetViews>
-    <sheetView topLeftCell="T71" zoomScale="98" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82:B85"/>
+    <sheetView tabSelected="1" topLeftCell="P56" zoomScale="98" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" customWidth="1"/>
-    <col min="4" max="4" width="47.109375" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" customWidth="1"/>
-    <col min="6" max="6" width="39.33203125" customWidth="1"/>
-    <col min="7" max="7" width="49.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" customWidth="1"/>
-    <col min="9" max="9" width="34.109375" customWidth="1"/>
-    <col min="10" max="10" width="50.88671875" customWidth="1"/>
-    <col min="11" max="11" width="44.5546875" customWidth="1"/>
-    <col min="12" max="12" width="48.77734375" customWidth="1"/>
-    <col min="13" max="13" width="60.109375" customWidth="1"/>
-    <col min="14" max="14" width="51.21875" customWidth="1"/>
-    <col min="16" max="16" width="31.88671875" customWidth="1"/>
-    <col min="17" max="17" width="54.33203125" customWidth="1"/>
-    <col min="18" max="18" width="31.44140625" customWidth="1"/>
-    <col min="19" max="19" width="39.109375" customWidth="1"/>
-    <col min="20" max="20" width="45.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="6" max="6" width="39.28515625" customWidth="1"/>
+    <col min="7" max="7" width="49.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" customWidth="1"/>
+    <col min="10" max="10" width="50.85546875" customWidth="1"/>
+    <col min="11" max="11" width="44.5703125" customWidth="1"/>
+    <col min="12" max="12" width="48.7109375" customWidth="1"/>
+    <col min="13" max="13" width="60.140625" customWidth="1"/>
+    <col min="14" max="14" width="51.28515625" customWidth="1"/>
+    <col min="16" max="16" width="31.85546875" customWidth="1"/>
+    <col min="17" max="17" width="54.28515625" customWidth="1"/>
+    <col min="18" max="18" width="31.42578125" customWidth="1"/>
+    <col min="19" max="19" width="39.140625" customWidth="1"/>
+    <col min="20" max="20" width="45.28515625" customWidth="1"/>
     <col min="21" max="21" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -7494,7 +7493,7 @@
         <v>Qwen-2.5-3B</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -7561,7 +7560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -7628,7 +7627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -7695,7 +7694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -7762,7 +7761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -7829,7 +7828,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -7896,7 +7895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -7963,7 +7962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -8030,7 +8029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -8097,7 +8096,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -8164,7 +8163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -8231,7 +8230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -8298,7 +8297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -8365,7 +8364,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -8432,7 +8431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -8499,7 +8498,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -8566,7 +8565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -8633,7 +8632,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -8700,7 +8699,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -8767,7 +8766,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -8834,7 +8833,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -8901,7 +8900,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -8968,7 +8967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -9035,7 +9034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -9102,7 +9101,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -9169,7 +9168,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -9236,7 +9235,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -9303,7 +9302,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -9370,7 +9369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -9437,7 +9436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -9504,7 +9503,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -9571,7 +9570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -9638,7 +9637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -9708,7 +9707,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -9775,7 +9774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -9842,7 +9841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -9909,7 +9908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -9976,7 +9975,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -10043,7 +10042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -10110,7 +10109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -10177,12 +10176,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>A2</f>
         <v>Machine</v>
@@ -10268,7 +10267,7 @@
         <v>Qwen-2.5-3B</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" ref="A46:C85" si="5">A3</f>
         <v>Grinding Machine</v>
@@ -10342,7 +10341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -10416,7 +10415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -10490,7 +10489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -10564,7 +10563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -10638,7 +10637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -10712,7 +10711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -10786,7 +10785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -10860,7 +10859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -10934,7 +10933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -11008,7 +11007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -11082,7 +11081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -11156,7 +11155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -11230,7 +11229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -11304,7 +11303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -11378,7 +11377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -11452,7 +11451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -11526,7 +11525,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -11600,7 +11599,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -11674,7 +11673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -11748,7 +11747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -11822,7 +11821,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -11896,7 +11895,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -11970,7 +11969,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -12044,7 +12043,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -12118,7 +12117,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -12192,7 +12191,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -12266,7 +12265,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -12340,7 +12339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -12414,7 +12413,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -12488,7 +12487,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -12562,7 +12561,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -12636,7 +12635,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -12710,7 +12709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -12784,7 +12783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -12858,7 +12857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -12932,7 +12931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -13006,7 +13005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -13080,7 +13079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -13154,7 +13153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="5"/>
         <v>Grinding Machine</v>
@@ -13238,21 +13237,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96240111-63F1-45A6-89CC-6431EF65BA8D}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="62" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>211</v>
       </c>
@@ -13272,7 +13271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>215</v>
       </c>
@@ -13296,7 +13295,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>215</v>
       </c>
@@ -13320,7 +13319,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -13344,7 +13343,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>211</v>
       </c>
@@ -13364,7 +13363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>217</v>
       </c>
@@ -13388,7 +13387,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>217</v>
       </c>
@@ -13412,7 +13411,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>217</v>
       </c>
@@ -13436,7 +13435,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>218</v>
       </c>
@@ -13450,7 +13449,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -13471,7 +13470,7 @@
         <v>Qwen-2.5-3B</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>232</v>
       </c>
@@ -13492,7 +13491,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>231</v>
       </c>
@@ -13513,7 +13512,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>230</v>
       </c>
@@ -13534,7 +13533,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>229</v>
       </c>
@@ -13555,7 +13554,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>223</v>
       </c>
@@ -13576,7 +13575,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>224</v>
       </c>
@@ -13597,7 +13596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>225</v>
       </c>
@@ -13618,7 +13617,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>226</v>
       </c>
@@ -13639,7 +13638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>228</v>
       </c>
@@ -13660,7 +13659,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>227</v>
       </c>

--- a/Evaluation/Ergebnisse.xlsx
+++ b/Evaluation/Ergebnisse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morge\Documents\GitHub\Bachelorarbeit\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{178AFDC3-779F-4678-8389-E7C97702515F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478AB933-EAF1-49D8-BD01-EB2AC137C291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13650" yWindow="5820" windowWidth="28800" windowHeight="15885" xr2:uid="{52387500-C1F9-47D4-8B59-BEB6484736D5}"/>
+    <workbookView xWindow="6750" yWindow="4335" windowWidth="28800" windowHeight="15885" activeTab="1" xr2:uid="{52387500-C1F9-47D4-8B59-BEB6484736D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1274,6 +1274,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1281,7 +1282,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1803,6 +1803,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1810,7 +1811,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1884,7 +1884,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> des LLM DeepSeek-R1 bei Wissensabfragen anhand unterschiedlicher KG-Architekturen</a:t>
+              <a:t> des LLM DeepSeek-R1 bei Wissensabfragen anhand unterschiedlicher KG-Modellierungen</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
@@ -2179,6 +2179,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2186,7 +2187,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2325,7 +2325,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t> bei Wissensabfragen anhand unterschiedlicher KG-Architekturen</a:t>
+              <a:t> bei Wissensabfragen anhand unterschiedlicher KG-Modellierungen</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2633,6 +2633,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2640,7 +2641,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2779,7 +2779,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t> bei Wissensabfragen anhand unterschiedlicher KG-Architekturen</a:t>
+              <a:t> bei Wissensabfragen anhand unterschiedlicher KG-Modellierungen</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3087,6 +3087,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3094,7 +3095,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3233,7 +3233,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t> bei Wissensabfragen anhand unterschiedlicher KG-Architekturen</a:t>
+              <a:t> bei Wissensabfragen anhand unterschiedlicher KG-Modellierungen</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3541,6 +3541,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3548,7 +3549,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7381,7 +7381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEE0BEF-A19C-46D9-8325-50102B7F2BC2}">
   <dimension ref="A1:V85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P56" zoomScale="98" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="P56" zoomScale="98" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
@@ -13237,8 +13237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96240111-63F1-45A6-89CC-6431EF65BA8D}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
